--- a/3-Descision-Tree/srcs/Task01/Task1.xlsx
+++ b/3-Descision-Tree/srcs/Task01/Task1.xlsx
@@ -12,8 +12,10 @@
     <sheet name="Complete tree" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset!$A$36:$B$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset!$A$54:$E$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset!$A$56:$E$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Slipt on Sunny'!$A$22:$B$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Slipt on Rain'!$A$32:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset!$A$56:$E$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Slipt on Sunny'!$A$22:$B$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Slipt on Rain'!$A$32:$D$32</definedName>
   </definedNames>
@@ -22,7 +24,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't Play</t>
+  </si>
+  <si>
+    <t>pYes</t>
+  </si>
+  <si>
+    <t>pNo</t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
   <si>
     <t>sunny</t>
   </si>
@@ -34,15 +54,6 @@
   </si>
   <si>
     <t>Windy</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Play</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don't Play</t>
   </si>
   <si>
     <t xml:space="preserve">At the first step, I calculate  the Impurity for each attribute</t>
@@ -57,25 +68,19 @@
     <t>nNo</t>
   </si>
   <si>
-    <t>pYes</t>
-  </si>
-  <si>
-    <t>pNo</t>
-  </si>
-  <si>
     <t>-plog2pYes</t>
   </si>
   <si>
     <t>-plog2pNo</t>
   </si>
   <si>
-    <t>Entropy</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
     <t>W*Entropy</t>
+  </si>
+  <si>
+    <t>IG</t>
   </si>
   <si>
     <t>overcast</t>
@@ -144,7 +149,7 @@
     <t>&gt;=95.5</t>
   </si>
   <si>
-    <t xml:space="preserve">From the calculated values, I pick the the Outlook which has smallest impurity.</t>
+    <t xml:space="preserve">From the calculated values, I pick the the Outlook which has largest  inforamtion gain</t>
   </si>
   <si>
     <t xml:space="preserve">From here, I create new workseets to calculate each node</t>
@@ -339,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -384,6 +389,30 @@
       <right style="thin">
         <color theme="1"/>
       </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color theme="1"/>
       </top>
@@ -492,17 +521,22 @@
     <xf fontId="4" fillId="4" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="5" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="7" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="6" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="8" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="7" fillId="6" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="9" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="7" fillId="6" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="7" fillId="6" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -516,13 +550,12 @@
     <xf fontId="6" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="13" fillId="4" borderId="2" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="13" fillId="4" borderId="4" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="2" applyFont="1"/>
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -534,11 +567,16 @@
     <xf fontId="6" fillId="0" borderId="3" numFmtId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="13" fillId="4" borderId="2" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="6" fillId="0" borderId="3" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="7" fillId="7" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="6" fillId="7" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="13" fillId="4" borderId="4" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="13" fillId="4" borderId="2" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
@@ -548,44 +586,36 @@
     <xf fontId="6" fillId="0" borderId="0" numFmtId="163" xfId="0" applyNumberFormat="1" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
-      <protection hidden="0" locked="1"/>
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="12" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="15" fillId="0" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="7" fillId="6" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="6" fillId="0" borderId="3" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="4" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="7" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="6" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="7" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="11" fillId="5" borderId="3" numFmtId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="7" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="7" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="16" fillId="2" borderId="8" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="16" fillId="2" borderId="10" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="7" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="9" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="6" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="12" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="9" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="12" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="7" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="9" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="6" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="12" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,15 +640,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>332521</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>159286</xdr:rowOff>
+      <xdr:colOff>332520</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>159285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>37186</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>163096</xdr:rowOff>
+      <xdr:colOff>37185</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>163095</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -627,8 +657,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="8443587" y="8168753"/>
-          <a:ext cx="1762065" cy="562609"/>
+          <a:off x="8762145" y="9455685"/>
+          <a:ext cx="2143064" cy="632459"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -672,15 +702,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>40216</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:colOff>40215</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>73818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>95779</xdr:rowOff>
+      <xdr:colOff>523873</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95778</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -691,9 +721,9 @@
         <xdr:nvPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10799990" flipH="0" flipV="1">
-          <a:off x="6126691" y="8398668"/>
-          <a:ext cx="2502958" cy="1288785"/>
+        <a:xfrm rot="10799989" flipH="0" flipV="1">
+          <a:off x="6450540" y="9998867"/>
+          <a:ext cx="2502957" cy="1403085"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -731,14 +761,14 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>514137</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>149599</xdr:rowOff>
+      <xdr:colOff>514136</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>149598</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>183936</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:colOff>183935</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>80595</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -748,8 +778,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="5746537" y="8904132"/>
-          <a:ext cx="1142999" cy="303529"/>
+          <a:off x="6057686" y="10284198"/>
+          <a:ext cx="1146173" cy="350095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -801,15 +831,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>919837</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>179799</xdr:rowOff>
+      <xdr:colOff>919836</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>179798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>708170</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114182</xdr:rowOff>
+      <xdr:colOff>708169</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114181</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -818,8 +848,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="11697904" y="9120600"/>
-          <a:ext cx="846666" cy="306916"/>
+          <a:off x="12559386" y="10523948"/>
+          <a:ext cx="845607" cy="353482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -865,15 +895,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>516995</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>516994</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>305328</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:colOff>305327</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>101598</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -882,8 +912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="9651471" y="10458449"/>
-          <a:ext cx="1388532" cy="330199"/>
+          <a:off x="9784819" y="10744198"/>
+          <a:ext cx="1388532" cy="301624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -924,14 +954,14 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>256116</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:colOff>256115</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>256116</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:colOff>256115</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>12699</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -944,8 +974,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="9205383" y="8695266"/>
-          <a:ext cx="0" cy="1375833"/>
+          <a:off x="9523940" y="10052048"/>
+          <a:ext cx="0" cy="1476374"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -983,15 +1013,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>933118</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>198649</xdr:rowOff>
+      <xdr:colOff>933117</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>198648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>130842</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>202458</xdr:rowOff>
+      <xdr:colOff>130841</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>202457</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1000,8 +1030,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="12439318" y="10885699"/>
-          <a:ext cx="1855198" cy="632459"/>
+          <a:off x="12572667" y="11125199"/>
+          <a:ext cx="1855198" cy="592982"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1052,15 +1082,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>345802</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>159286</xdr:rowOff>
+      <xdr:colOff>345801</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>159285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>50468</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>163096</xdr:rowOff>
+      <xdr:colOff>50467</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>163095</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1069,8 +1099,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="8456869" y="8820686"/>
-          <a:ext cx="2151532" cy="613409"/>
+          <a:off x="8775426" y="9455685"/>
+          <a:ext cx="2143065" cy="632459"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1114,15 +1144,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>53497</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:colOff>53496</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>73818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>537156</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>95779</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95778</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -1133,9 +1163,9 @@
         <xdr:nvPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10799990" flipH="0" flipV="1">
-          <a:off x="6149498" y="9344818"/>
-          <a:ext cx="2498724" cy="1393560"/>
+        <a:xfrm rot="10799989" flipH="0" flipV="1">
+          <a:off x="6463821" y="9998867"/>
+          <a:ext cx="2502958" cy="1403085"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1174,13 +1204,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>527418</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>149599</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>149598</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>197218</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:colOff>197217</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>80595</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1190,8 +1220,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="5759818" y="9623799"/>
-          <a:ext cx="1142999" cy="337396"/>
+          <a:off x="6070967" y="10284198"/>
+          <a:ext cx="1146174" cy="350095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1243,15 +1273,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>933118</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>179799</xdr:rowOff>
+      <xdr:colOff>933117</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>179798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>721451</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114182</xdr:rowOff>
+      <xdr:colOff>721450</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114181</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1260,8 +1290,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="12100651" y="9857199"/>
-          <a:ext cx="846665" cy="340782"/>
+          <a:off x="12572667" y="10523948"/>
+          <a:ext cx="845607" cy="353482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1307,14 +1337,14 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>269398</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:colOff>269397</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>269398</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:colOff>269397</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>12699</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1327,8 +1357,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="9218664" y="9397999"/>
-          <a:ext cx="0" cy="1460499"/>
+          <a:off x="9537222" y="10052048"/>
+          <a:ext cx="0" cy="1476374"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1366,14 +1396,14 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>264106</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:colOff>264105</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:colOff>59530</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>159543</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1386,8 +1416,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="10198681" y="9766299"/>
-          <a:ext cx="2424324" cy="1289843"/>
+          <a:off x="10332030" y="10052048"/>
+          <a:ext cx="2424324" cy="1232693"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1508,7 +1538,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>276436</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>172507</xdr:rowOff>
+      <xdr:rowOff>172506</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1568,7 +1598,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>111191</xdr:colOff>
+      <xdr:colOff>111190</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>9630</xdr:rowOff>
     </xdr:to>
@@ -1581,7 +1611,7 @@
         <xdr:nvPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10799990" flipH="0" flipV="1">
+        <a:xfrm rot="10799989" flipH="0" flipV="1">
           <a:off x="5300133" y="5722029"/>
           <a:ext cx="2786657" cy="1416533"/>
         </a:xfrm>
@@ -1638,7 +1668,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="5550463" y="5832312"/>
+          <a:off x="5550462" y="5832312"/>
           <a:ext cx="1142998" cy="337395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1708,7 +1738,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="11539221" y="6234411"/>
+          <a:off x="11539221" y="6234410"/>
           <a:ext cx="846664" cy="340781"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1773,7 +1803,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
           <a:off x="8989550" y="6283211"/>
-          <a:ext cx="967249" cy="323848"/>
+          <a:ext cx="967248" cy="323848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2017,7 +2047,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>753533</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>46095</xdr:rowOff>
+      <xdr:rowOff>46094</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2093,7 +2123,7 @@
         <xdr:nvPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5399978" flipH="0" flipV="0">
+        <a:xfrm rot="5399977" flipH="0" flipV="0">
           <a:off x="3147943" y="7376191"/>
           <a:ext cx="1062759" cy="1234782"/>
         </a:xfrm>
@@ -2133,7 +2163,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>493974</xdr:colOff>
+      <xdr:colOff>493973</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>193762</xdr:rowOff>
     </xdr:from>
@@ -2218,7 +2248,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>228597</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>65364</xdr:rowOff>
+      <xdr:rowOff>65363</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2282,11 +2312,11 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>558799</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>4616</xdr:rowOff>
+      <xdr:rowOff>4615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>126997</xdr:colOff>
+      <xdr:colOff>126996</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>138811</xdr:rowOff>
     </xdr:to>
@@ -2370,7 +2400,7 @@
         <xdr:nvPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5399978" flipH="0" flipV="1">
+        <a:xfrm rot="5399977" flipH="0" flipV="1">
           <a:off x="4838408" y="7812907"/>
           <a:ext cx="983278" cy="440829"/>
         </a:xfrm>
@@ -2557,13 +2587,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>551387</xdr:colOff>
+      <xdr:colOff>551386</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>84124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>290044</xdr:colOff>
+      <xdr:colOff>290043</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>19202</xdr:rowOff>
     </xdr:to>
@@ -2576,7 +2606,7 @@
         <xdr:nvPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10799990" flipH="0" flipV="1">
+        <a:xfrm rot="10799989" flipH="0" flipV="1">
           <a:off x="5113863" y="6103924"/>
           <a:ext cx="2786656" cy="1382877"/>
         </a:xfrm>
@@ -2692,7 +2722,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>321938</xdr:colOff>
+      <xdr:colOff>321937</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>7858</xdr:rowOff>
     </xdr:to>
@@ -2750,7 +2780,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>583204</xdr:colOff>
+      <xdr:colOff>583203</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>51663</xdr:rowOff>
     </xdr:from>
@@ -2809,7 +2839,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>440329</xdr:colOff>
+      <xdr:colOff>440328</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>133918</xdr:rowOff>
     </xdr:from>
@@ -2830,7 +2860,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
           <a:off x="9270004" y="6153718"/>
-          <a:ext cx="2942890" cy="1841573"/>
+          <a:ext cx="2942889" cy="1841573"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2947,7 +2977,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>500587</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>110489</xdr:rowOff>
+      <xdr:rowOff>110488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -2963,7 +2993,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
           <a:off x="3843862" y="7216139"/>
-          <a:ext cx="1820331" cy="690878"/>
+          <a:ext cx="1820330" cy="690878"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3014,7 +3044,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>157568</xdr:colOff>
+      <xdr:colOff>157567</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>123535</xdr:rowOff>
     </xdr:to>
@@ -3027,7 +3057,7 @@
         <xdr:nvPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5399978" flipH="0" flipV="0">
+        <a:xfrm rot="5399977" flipH="0" flipV="0">
           <a:off x="2971198" y="7718715"/>
           <a:ext cx="1051327" cy="1227160"/>
         </a:xfrm>
@@ -3222,7 +3252,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>221183</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>29850</xdr:rowOff>
+      <xdr:rowOff>29849</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3303,7 +3333,7 @@
         <xdr:nvPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5399978" flipH="0" flipV="1">
+        <a:xfrm rot="5399977" flipH="0" flipV="1">
           <a:off x="4657852" y="8151622"/>
           <a:ext cx="971847" cy="440829"/>
         </a:xfrm>
@@ -3423,7 +3453,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>539549</xdr:colOff>
+      <xdr:colOff>539548</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>29851</xdr:rowOff>
     </xdr:from>
@@ -3440,8 +3470,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="7540424" y="8402326"/>
-          <a:ext cx="1820331" cy="690877"/>
+          <a:off x="7540423" y="8402326"/>
+          <a:ext cx="1820330" cy="690877"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3490,7 +3520,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>360037</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>29850</xdr:rowOff>
+      <xdr:rowOff>29849</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -3501,8 +3531,8 @@
         <xdr:nvPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5399978" flipH="0" flipV="0">
-          <a:off x="7413433" y="7235646"/>
+        <a:xfrm rot="5399977" flipH="0" flipV="0">
+          <a:off x="7413433" y="7235645"/>
           <a:ext cx="2203835" cy="129521"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3543,7 +3573,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>647699</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>113651</xdr:rowOff>
+      <xdr:rowOff>113650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -3560,7 +3590,7 @@
         <xdr:nvPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5399978" flipH="0" flipV="0">
+        <a:xfrm rot="5399977" flipH="0" flipV="0">
           <a:off x="7584942" y="9006958"/>
           <a:ext cx="1107929" cy="1152114"/>
         </a:xfrm>
@@ -3600,9 +3630,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>112420</xdr:colOff>
+      <xdr:colOff>112419</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>113651</xdr:rowOff>
+      <xdr:rowOff>113650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -3667,7 +3697,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>414010</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>6210</xdr:rowOff>
+      <xdr:rowOff>6209</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3737,7 +3767,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>176684</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>6210</xdr:rowOff>
+      <xdr:rowOff>6209</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3807,7 +3837,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>334396</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>120028</xdr:rowOff>
+      <xdr:rowOff>120027</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4020,7 +4050,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>520448</xdr:colOff>
+      <xdr:colOff>520447</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>125688</xdr:rowOff>
     </xdr:from>
@@ -4084,7 +4114,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>230193</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>85940</xdr:rowOff>
+      <xdr:rowOff>85939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -4101,9 +4131,9 @@
         <xdr:nvPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10799990" flipH="0" flipV="1">
+        <a:xfrm rot="10799989" flipH="0" flipV="1">
           <a:off x="5316543" y="1971890"/>
-          <a:ext cx="3529606" cy="1582902"/>
+          <a:ext cx="3529606" cy="1582901"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4143,7 +4173,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>480523</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>192836</xdr:rowOff>
+      <xdr:rowOff>192835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -4277,7 +4307,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>395360</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>24904</xdr:rowOff>
+      <xdr:rowOff>24903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -4336,11 +4366,11 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>252485</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>135734</xdr:rowOff>
+      <xdr:rowOff>135733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>118800</xdr:colOff>
+      <xdr:colOff>118799</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>15157</xdr:rowOff>
     </xdr:to>
@@ -4472,13 +4502,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>512768</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>112305</xdr:rowOff>
+      <xdr:rowOff>112304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>170924</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>107858</xdr:rowOff>
+      <xdr:rowOff>107857</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4552,7 +4582,7 @@
         <xdr:nvPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5399978" flipH="0" flipV="0">
+        <a:xfrm rot="5399977" flipH="0" flipV="0">
           <a:off x="3007191" y="3620018"/>
           <a:ext cx="1051327" cy="1560534"/>
         </a:xfrm>
@@ -4598,9 +4628,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>351457</xdr:colOff>
+      <xdr:colOff>351456</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>112141</xdr:rowOff>
+      <xdr:rowOff>112140</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4741,7 +4771,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>585793</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>88607</xdr:rowOff>
+      <xdr:rowOff>88606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -4809,13 +4839,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>39692</xdr:colOff>
+      <xdr:colOff>39691</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>86953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>480520</xdr:colOff>
+      <xdr:colOff>480519</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>153925</xdr:rowOff>
     </xdr:to>
@@ -4828,9 +4858,9 @@
         <xdr:nvPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5399978" flipH="0" flipV="1">
+        <a:xfrm rot="5399977" flipH="0" flipV="1">
           <a:off x="4860533" y="4219613"/>
-          <a:ext cx="971847" cy="440827"/>
+          <a:ext cx="971847" cy="440826"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4868,7 +4898,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>397497</xdr:colOff>
+      <xdr:colOff>397496</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>153927</xdr:rowOff>
     </xdr:from>
@@ -4956,7 +4986,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>343236</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>27219</xdr:rowOff>
+      <xdr:rowOff>27218</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5026,7 +5056,7 @@
         <xdr:nvPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5399978" flipH="0" flipV="0">
+        <a:xfrm rot="5399977" flipH="0" flipV="0">
           <a:off x="8259051" y="3203624"/>
           <a:ext cx="2403859" cy="129520"/>
         </a:xfrm>
@@ -5068,7 +5098,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>7090</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
+      <xdr:rowOff>11904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -5086,7 +5116,7 @@
         <xdr:nvPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10799990" flipH="0" flipV="1">
+        <a:xfrm rot="10799989" flipH="0" flipV="1">
           <a:off x="7531840" y="5145881"/>
           <a:ext cx="1447853" cy="1406294"/>
         </a:xfrm>
@@ -5128,7 +5158,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>534176</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>144042</xdr:rowOff>
+      <xdr:rowOff>144041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -5187,11 +5217,11 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>166196</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>112141</xdr:rowOff>
+      <xdr:rowOff>112140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>121416</xdr:colOff>
+      <xdr:colOff>121415</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>83775</xdr:rowOff>
     </xdr:to>
@@ -5263,7 +5293,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>608919</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>83774</xdr:rowOff>
+      <xdr:rowOff>83773</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5325,7 +5355,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>583176</xdr:colOff>
+      <xdr:colOff>583175</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>78735</xdr:rowOff>
     </xdr:from>
@@ -5410,7 +5440,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>390117</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>7071</xdr:rowOff>
+      <xdr:rowOff>7070</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5975,7 +6005,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5986,7 +6016,7 @@
     <col customWidth="1" min="3" max="3" style="1" width="12.00390625"/>
     <col min="4" max="4" style="1" width="9.140625"/>
     <col customWidth="1" min="5" max="5" style="1" width="12.00390625"/>
-    <col min="6" max="6" style="1" width="9.140625"/>
+    <col customWidth="1" min="6" max="6" style="1" width="11.140625"/>
     <col customWidth="1" min="7" max="7" style="1" width="13.57421875"/>
     <col customWidth="1" min="8" max="8" style="1" width="13.00390625"/>
     <col min="9" max="9" style="1" width="9.140625"/>
@@ -6002,214 +6032,147 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+    </row>
+    <row r="2" ht="16.5">
+      <c r="H2" s="6"/>
+      <c r="I2" s="1">
+        <f>COUNTIF($E$4:$E$17,$J$1)</f>
+        <v>5</v>
+      </c>
+      <c r="J2" s="1">
+        <f>COUNTIF($E$4:$E$17,$I$1)</f>
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <f>I2/SUM(I2,J2)</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="L2" s="1">
+        <f>J2/SUM(I2,J2)</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M2" s="7">
+        <f>-IFERROR($K2*LOG($K2,2),0)-IFERROR($L2*LOG($L2,2),0)</f>
+        <v>0.94028595867063114</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" ht="16.5">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" ht="16.5">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>85</v>
-      </c>
-      <c r="C2" s="3">
-        <v>85</v>
-      </c>
-      <c r="D2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" ht="16.5">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>80</v>
-      </c>
-      <c r="C3" s="3">
-        <v>90</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" ht="16.5">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" ref="I4:I6" si="0">COUNTIFS($A$2:$A$15,H4,$E$2:$E$15,I$1)</f>
+      <c r="E4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="3">
-        <f t="shared" ref="J4:J6" si="1">COUNTIFS($A$2:$A$15,H4,$E$2:$E$15,J$1)</f>
-        <v>3</v>
-      </c>
-      <c r="K4" s="9">
-        <f t="shared" ref="K4:K6" si="2">I4/SUM($I4,$J4)</f>
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="L4" s="9">
-        <f t="shared" ref="L4:L6" si="3">J4/SUM($I4,$J4)</f>
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="M4" s="10">
-        <f t="shared" ref="M4:M6" si="4">-IFERROR($K4*LOG($K4,2),0)</f>
-        <v>0.52877123795494485</v>
-      </c>
-      <c r="N4" s="10">
-        <f t="shared" ref="N4:N6" si="5">-IFERROR($L4*LOG($L4,2),0)</f>
-        <v>0.44217935649972373</v>
-      </c>
-      <c r="O4" s="10">
-        <f t="shared" ref="O4:O6" si="6">SUM(M4,N4)</f>
-        <v>0.97095059445466858</v>
-      </c>
-      <c r="P4" s="3">
-        <f t="shared" ref="P4:P6" si="7">SUM($I4:$J4)/SUM($I$4:$J$6)</f>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="Q4" s="3">
-        <f>O4*P4</f>
-        <v>0.34676806944809591</v>
-      </c>
+      <c r="H4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="P4" s="1"/>
     </row>
     <row r="5" ht="16.5">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C5" s="3">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="P5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L5" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <f t="shared" si="7"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="Q5" s="3">
-        <f>O5*P5</f>
-        <v>0</v>
       </c>
     </row>
     <row r="6" ht="16.5">
@@ -6217,1844 +6180,1951 @@
         <v>19</v>
       </c>
       <c r="B6" s="3">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$4:$A$17,H6,$E$4:$E$17,I$1)</f>
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <f>COUNTIFS($A$4:$A$17,H6,$E$4:$E$17,J$1)</f>
         <v>3</v>
       </c>
-      <c r="J6" s="3">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K6" s="9">
-        <f t="shared" si="2"/>
+      <c r="K6" s="12">
+        <f t="shared" ref="K6:K8" si="0">I6/SUM($I6,$J6)</f>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" ref="L6:L8" si="1">J6/SUM($I6,$J6)</f>
         <v>0.59999999999999998</v>
       </c>
-      <c r="L6" s="9">
-        <f t="shared" si="3"/>
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="M6" s="10">
-        <f t="shared" si="4"/>
+      <c r="M6" s="13">
+        <f t="shared" ref="M6:M8" si="2">-IFERROR($K6*LOG($K6,2),0)</f>
+        <v>0.52877123795494485</v>
+      </c>
+      <c r="N6" s="13">
+        <f t="shared" ref="N6:N8" si="3">-IFERROR($L6*LOG($L6,2),0)</f>
         <v>0.44217935649972373</v>
       </c>
-      <c r="N6" s="10">
-        <f t="shared" si="5"/>
-        <v>0.52877123795494485</v>
-      </c>
-      <c r="O6" s="10">
-        <f t="shared" si="6"/>
+      <c r="O6" s="13">
+        <f t="shared" ref="O6:O8" si="4">SUM(M6,N6)</f>
         <v>0.97095059445466858</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="7"/>
+        <f>SUM($I6:$J6)/SUM($I$6:$J$8)</f>
         <v>0.35714285714285715</v>
       </c>
       <c r="Q6" s="3">
-        <f>O6*P6</f>
+        <f t="shared" ref="Q6:Q8" si="5">O6*P6</f>
         <v>0.34676806944809591</v>
+      </c>
+      <c r="R6" s="3">
+        <f>$M$2-Q6</f>
+        <v>0.59351788922253523</v>
       </c>
     </row>
     <row r="7" ht="16.5">
       <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
+        <v>70</v>
+      </c>
+      <c r="C7" s="3">
+        <v>96</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3">
-        <v>65</v>
-      </c>
-      <c r="C7" s="3">
-        <v>70</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="12">
-        <f>SUM(Q4:Q6)</f>
-        <v>0.69353613889619181</v>
+      <c r="I7" s="3">
+        <f>COUNTIFS($A$4:$A$17,H7,$E$4:$E$17,I$1)</f>
+        <v>4</v>
+      </c>
+      <c r="J7" s="3">
+        <f>COUNTIFS($A$4:$A$17,H7,$E$4:$E$17,J$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <f>SUM($I7:$J7)/SUM($I$6:$J$8)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <f>$M$2-Q7</f>
+        <v>0.94028595867063114</v>
       </c>
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C8" s="3">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D8" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3">
+        <f>COUNTIFS($A$4:$A$17,H8,$E$4:$E$17,I$1)</f>
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <f>COUNTIFS($A$4:$A$17,H8,$E$4:$E$17,J$1)</f>
+        <v>2</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" si="2"/>
+        <v>0.44217935649972373</v>
+      </c>
+      <c r="N8" s="13">
+        <f t="shared" si="3"/>
+        <v>0.52877123795494485</v>
+      </c>
+      <c r="O8" s="13">
+        <f t="shared" si="4"/>
+        <v>0.97095059445466858</v>
+      </c>
+      <c r="P8" s="3">
+        <f>SUM($I8:$J8)/SUM($I$6:$J$8)</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="5"/>
+        <v>0.34676806944809591</v>
+      </c>
+      <c r="R8" s="3">
+        <f>$M$2-Q8</f>
+        <v>0.59351788922253523</v>
       </c>
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="3" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="15">
+        <f>SUM(Q6:Q8)</f>
+        <v>0.69353613889619181</v>
+      </c>
+      <c r="R9" s="1">
+        <f>$M$2-Q9</f>
+        <v>0.24674981977443933</v>
       </c>
     </row>
     <row r="10" ht="16.5">
       <c r="A10" s="3" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P10" s="1"/>
     </row>
     <row r="11" ht="16.5">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" ref="I11:I12" si="8">COUNTIFS($D$2:$D$15,H11,$E$2:$E$15,I$1)</f>
-        <v>3</v>
-      </c>
-      <c r="J11" s="14">
-        <f t="shared" ref="J11:J12" si="9">COUNTIFS($D$2:$D$15,H11,$E$2:$E$15,J$1)</f>
-        <v>3</v>
-      </c>
-      <c r="K11" s="9">
-        <f t="shared" ref="K11:K12" si="10">I11/SUM($I11,$J11)</f>
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="9">
-        <f t="shared" ref="L11:L12" si="11">J11/SUM($I11,$J11)</f>
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="10">
-        <f t="shared" ref="M11:M42" si="12">-IFERROR($K11*LOG($K11,2),0)</f>
-        <v>0.5</v>
-      </c>
-      <c r="N11" s="10">
-        <f t="shared" ref="N11:N42" si="13">-IFERROR($L11*LOG($L11,2),0)</f>
-        <v>0.5</v>
-      </c>
-      <c r="O11" s="10">
-        <f t="shared" ref="O11:O12" si="14">SUM(M11,N11)</f>
-        <v>1</v>
-      </c>
-      <c r="P11" s="14">
-        <f t="shared" ref="P11:P12" si="15">SUM($I11:$J11)/SUM($I$4:$J$6)</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="Q11" s="3">
-        <f>O11*P11</f>
-        <v>0.42857142857142855</v>
-      </c>
+      <c r="E11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="P11" s="1"/>
     </row>
     <row r="12" ht="16.5">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3">
         <v>70</v>
       </c>
       <c r="D12" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="J12" s="14">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="K12" s="9">
-        <f t="shared" si="10"/>
-        <v>0.75</v>
-      </c>
-      <c r="L12" s="9">
-        <f t="shared" si="11"/>
-        <v>0.25</v>
-      </c>
-      <c r="M12" s="10">
-        <f t="shared" si="12"/>
-        <v>0.31127812445913283</v>
-      </c>
-      <c r="N12" s="10">
-        <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="14"/>
-        <v>0.81127812445913283</v>
-      </c>
-      <c r="P12" s="14">
-        <f t="shared" si="15"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="Q12" s="3">
-        <f>O12*P12</f>
-        <v>0.46358749969093305</v>
+      <c r="P12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="16.5">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C13" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="19">
-        <f>SUM(Q11:Q12)</f>
-        <v>0.89215892826236165</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="17">
+        <f>COUNTIFS($D$4:$D$17,H13,$E$4:$E$17,I$1)</f>
+        <v>3</v>
+      </c>
+      <c r="J13" s="17">
+        <f>COUNTIFS($D$4:$D$17,H13,$E$4:$E$17,J$1)</f>
+        <v>3</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" ref="K13:K14" si="6">I13/SUM($I13,$J13)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" ref="L13:L14" si="7">J13/SUM($I13,$J13)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="13">
+        <f t="shared" ref="M13:M44" si="8">-IFERROR($K13*LOG($K13,2),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="13">
+        <f t="shared" ref="N13:N44" si="9">-IFERROR($L13*LOG($L13,2),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="13">
+        <f t="shared" ref="O13:O14" si="10">SUM(M13,N13)</f>
+        <v>1</v>
+      </c>
+      <c r="P13" s="17">
+        <f>SUM($I13:$J13)/SUM($I$6:$J$8)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" ref="Q13:Q14" si="11">O13*P13</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="R13" s="3">
+        <f>$M$2-Q13</f>
+        <v>0.51171453009920254</v>
       </c>
     </row>
     <row r="14" ht="16.5">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
+        <f>COUNTIFS($D$4:$D$17,H14,$E$4:$E$17,I$1)</f>
+        <v>6</v>
+      </c>
+      <c r="J14" s="17">
+        <f>COUNTIFS($D$4:$D$17,H14,$E$4:$E$17,J$1)</f>
+        <v>2</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="M14" s="13">
+        <f t="shared" si="8"/>
+        <v>0.31127812445913283</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="10"/>
+        <v>0.81127812445913283</v>
+      </c>
+      <c r="P14" s="17">
+        <f>SUM($I14:$J14)/SUM($I$6:$J$8)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="11"/>
+        <v>0.46358749969093305</v>
+      </c>
+      <c r="R14" s="3">
+        <f>$M$2-Q14</f>
+        <v>0.47669845897969809</v>
+      </c>
     </row>
     <row r="15" ht="16.5">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3">
+        <v>90</v>
+      </c>
+      <c r="D15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="21">
+        <f>SUM(Q13:Q14)</f>
+        <v>0.89215892826236165</v>
+      </c>
+      <c r="R15" s="3">
+        <f>$M$2-Q15</f>
+        <v>4.8127030408269489e-002</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3">
+        <v>81</v>
+      </c>
+      <c r="C16" s="3">
+        <v>75</v>
+      </c>
+      <c r="D16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" ht="16.5">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
         <v>71</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C17" s="3">
         <v>80</v>
       </c>
-      <c r="D15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="21"/>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" ht="14.25"/>
-    <row r="17" ht="14.25">
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-    </row>
-    <row r="18" ht="16.5">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="D17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="23"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" ht="14.25"/>
+    <row r="19" ht="14.25">
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+    </row>
+    <row r="20" ht="16.5">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="H20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="H18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N18" s="7" t="s">
+      <c r="M20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="N20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="O20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="Q20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="23"/>
-    </row>
-    <row r="19" ht="16.5">
-      <c r="A19" s="3">
-        <v>64</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" ref="C19:C23" si="16">SUM(A19:A20)/2</f>
-        <v>64.5</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="H19" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="14">
-        <f t="shared" ref="I19:I30" si="17">COUNTIFS($A$19:$A$32,$H19,$B$19:$B$32,I$1)</f>
-        <v>1</v>
-      </c>
-      <c r="J19" s="14">
-        <f t="shared" ref="J19:J30" si="18">COUNTIFS($A$19:$A$32,$H19,$B$19:$B$32,J$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="25">
-        <f t="shared" ref="K19:K42" si="19">$I19/SUM($I19:$J19)</f>
-        <v>1</v>
-      </c>
-      <c r="L19" s="25">
-        <f t="shared" ref="L19:L42" si="20">$J19/SUM($I19:$J19)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
-        <f t="shared" ref="O19:O42" si="21">SUM(M19:N19)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="26">
-        <f t="shared" ref="P19:P24" si="22">SUM(A1,I19:J19)/SUM($I$19:$J$20)</f>
-        <v>7.1428571428571425e-002</v>
-      </c>
-      <c r="Q19" s="3">
-        <f t="shared" ref="Q19:Q42" si="23">O19*P19</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5">
-      <c r="A20" s="3">
-        <v>65</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" si="16"/>
-        <v>66.5</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="H20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="14">
-        <f t="shared" si="17"/>
-        <v>8</v>
-      </c>
-      <c r="J20" s="14">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="K20" s="25">
-        <f t="shared" si="19"/>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="L20" s="25">
-        <f t="shared" si="20"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="M20" s="9">
-        <f t="shared" si="12"/>
-        <v>0.43103982654836442</v>
-      </c>
-      <c r="N20" s="9">
-        <f t="shared" si="13"/>
-        <v>0.5301967781745115</v>
-      </c>
-      <c r="O20" s="9">
-        <f t="shared" si="21"/>
-        <v>0.96123660472287598</v>
-      </c>
-      <c r="P20" s="26">
-        <f t="shared" si="22"/>
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="Q20" s="3">
-        <f t="shared" si="23"/>
-        <v>0.89257684724267061</v>
-      </c>
-      <c r="R20" s="19">
-        <f>SUM(Q19:Q20)</f>
-        <v>0.89257684724267061</v>
+      <c r="R20" s="25"/>
+      <c r="S20" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="16.5">
       <c r="A21" s="3">
-        <v>68</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" ref="C21:C25" si="12">SUM(A21:A22)/2</f>
+        <v>64.5</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H21,$B$21:$B$34,I$1)</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H21,$B$21:$B$34,J$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="27">
+        <f t="shared" ref="K21:K44" si="13">$I21/SUM($I21:$J21)</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="27">
+        <f t="shared" ref="L21:L44" si="14">$J21/SUM($I21:$J21)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="12">
+        <f t="shared" ref="O21:O44" si="15">SUM(M21:N21)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="28">
+        <f>SUM(A3,I21:J21)/SUM($I$21:$J$22)</f>
+        <v>7.1428571428571425e-002</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" ref="Q21:Q44" si="16">O21*P21</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5">
+      <c r="A22" s="3">
+        <v>65</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="12"/>
+        <v>66.5</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="H22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="14">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="J21" s="14">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="K21" s="25">
-        <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="L21" s="25">
-        <f t="shared" si="20"/>
-        <v>0.5</v>
-      </c>
-      <c r="M21" s="9">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="N21" s="9">
+      <c r="I22" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H22,$B$21:$B$34,I$1)</f>
+        <v>8</v>
+      </c>
+      <c r="J22" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H22,$B$21:$B$34,J$1)</f>
+        <v>5</v>
+      </c>
+      <c r="K22" s="27">
+        <f t="shared" si="13"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="L22" s="27">
+        <f t="shared" si="14"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="M22" s="12">
+        <f t="shared" si="8"/>
+        <v>0.43103982654836442</v>
+      </c>
+      <c r="N22" s="12">
+        <f t="shared" si="9"/>
+        <v>0.5301967781745115</v>
+      </c>
+      <c r="O22" s="12">
+        <f t="shared" si="15"/>
+        <v>0.96123660472287598</v>
+      </c>
+      <c r="P22" s="28">
+        <f>SUM(A4,I22:J22)/SUM($I$21:$J$22)</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="16"/>
+        <v>0.89257684724267061</v>
+      </c>
+      <c r="R22" s="21">
+        <f>SUM(Q21:Q22)</f>
+        <v>0.89257684724267061</v>
+      </c>
+      <c r="S22" s="3">
+        <f>$M$2-R22</f>
+        <v>4.7709111427960527e-002</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5">
+      <c r="A23" s="3">
+        <v>68</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="H23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H23,$B$21:$B$34,I$1)</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H23,$B$21:$B$34,J$1)</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="27">
         <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
-      <c r="O21" s="9">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="P21" s="26">
-        <f t="shared" si="22"/>
+      <c r="L23" s="27">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="M23" s="12">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="12">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="O23" s="12">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P23" s="28">
+        <f>SUM(A5,I23:J23)/SUM($I$21:$J$22)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="Q21" s="3">
-        <f t="shared" si="23"/>
+      <c r="Q23" s="3">
+        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="R21" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5">
-      <c r="A22" s="3">
-        <v>69</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="H22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="14">
-        <f t="shared" si="17"/>
-        <v>8</v>
-      </c>
-      <c r="J22" s="14">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="K22" s="25">
-        <f t="shared" si="19"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L22" s="25">
-        <f t="shared" si="20"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M22" s="9">
-        <f t="shared" si="12"/>
-        <v>0.38997500048077083</v>
-      </c>
-      <c r="N22" s="9">
-        <f t="shared" si="13"/>
-        <v>0.52832083357371873</v>
-      </c>
-      <c r="O22" s="9">
-        <f t="shared" si="21"/>
-        <v>0.91829583405448956</v>
-      </c>
-      <c r="P22" s="26">
-        <f t="shared" si="22"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Q22" s="3">
-        <f t="shared" si="23"/>
-        <v>0.7871107149038481</v>
-      </c>
-      <c r="R22" s="19">
-        <f>SUM(Q21:Q22)</f>
-        <v>0.92996785776099089</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5">
-      <c r="A23" s="3">
-        <v>70</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" si="16"/>
-        <v>70.5</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="H23" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="14">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="J23" s="14">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="K23" s="25">
-        <f t="shared" si="19"/>
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="L23" s="25">
-        <f t="shared" si="20"/>
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="M23" s="9">
-        <f t="shared" si="12"/>
-        <v>0.25754247590988982</v>
-      </c>
-      <c r="N23" s="9">
-        <f t="shared" si="13"/>
-        <v>0.46438561897747244</v>
-      </c>
-      <c r="O23" s="9">
-        <f t="shared" si="21"/>
-        <v>0.72192809488736231</v>
-      </c>
-      <c r="P23" s="26">
-        <f t="shared" si="22"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="Q23" s="3">
-        <f t="shared" si="23"/>
-        <v>0.25783146245977229</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>20</v>
+      <c r="R23" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="16.5">
       <c r="A24" s="3">
-        <v>71</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="H24" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="14">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="J24" s="14">
-        <f t="shared" si="18"/>
+      <c r="H24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H24,$B$21:$B$34,I$1)</f>
+        <v>8</v>
+      </c>
+      <c r="J24" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H24,$B$21:$B$34,J$1)</f>
         <v>4</v>
       </c>
-      <c r="K24" s="25">
-        <f t="shared" si="19"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="L24" s="25">
-        <f t="shared" si="20"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="M24" s="9">
-        <f t="shared" si="12"/>
-        <v>0.4711093925305278</v>
-      </c>
-      <c r="N24" s="9">
+      <c r="K24" s="27">
         <f t="shared" si="13"/>
-        <v>0.51996666730769436</v>
-      </c>
-      <c r="O24" s="9">
-        <f t="shared" si="21"/>
-        <v>0.99107605983822222</v>
-      </c>
-      <c r="P24" s="26">
-        <f t="shared" si="22"/>
-        <v>0.6428571428571429</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L24" s="27">
+        <f t="shared" si="14"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M24" s="12">
+        <f t="shared" si="8"/>
+        <v>0.38997500048077083</v>
+      </c>
+      <c r="N24" s="12">
+        <f t="shared" si="9"/>
+        <v>0.52832083357371873</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" si="15"/>
+        <v>0.91829583405448956</v>
+      </c>
+      <c r="P24" s="28">
+        <f>SUM(A6,I24:J24)/SUM($I$21:$J$22)</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="23"/>
-        <v>0.63712032418171438</v>
-      </c>
-      <c r="R24" s="19">
+        <f t="shared" si="16"/>
+        <v>0.7871107149038481</v>
+      </c>
+      <c r="R24" s="29">
         <f>SUM(Q23:Q24)</f>
-        <v>0.89495178664148667</v>
+        <v>0.92996785776099089</v>
+      </c>
+      <c r="S24" s="3">
+        <f>$M$2-R24</f>
+        <v>1.0318100909640249e-002</v>
       </c>
     </row>
     <row r="25" ht="16.5">
       <c r="A25" s="3">
-        <v>72</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="12"/>
+        <v>70.5</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="H25" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="14">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="J25" s="14">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="K25" s="25">
-        <f t="shared" si="19"/>
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="L25" s="25">
-        <f t="shared" si="20"/>
-        <v>0.29999999999999999</v>
-      </c>
-      <c r="M25" s="9">
-        <f t="shared" si="12"/>
-        <v>0.36020122098083079</v>
-      </c>
-      <c r="N25" s="9">
+      <c r="H25" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H25,$B$21:$B$34,I$1)</f>
+        <v>4</v>
+      </c>
+      <c r="J25" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H25,$B$21:$B$34,J$1)</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="27">
         <f t="shared" si="13"/>
-        <v>0.52108967824986185</v>
-      </c>
-      <c r="O25" s="9">
-        <f t="shared" si="21"/>
-        <v>0.8812908992306927</v>
-      </c>
-      <c r="P25" s="26">
-        <f>SUM(A9,I25:J25)/SUM($I$19:$J$20)</f>
-        <v>0.7142857142857143</v>
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="L25" s="27">
+        <f t="shared" si="14"/>
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="M25" s="12">
+        <f t="shared" si="8"/>
+        <v>0.25754247590988982</v>
+      </c>
+      <c r="N25" s="12">
+        <f t="shared" si="9"/>
+        <v>0.46438561897747244</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" si="15"/>
+        <v>0.72192809488736231</v>
+      </c>
+      <c r="P25" s="28">
+        <f>SUM(A7,I25:J25)/SUM($I$21:$J$22)</f>
+        <v>0.35714285714285715</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" si="23"/>
-        <v>0.62949349945049482</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>20</v>
+        <f t="shared" si="16"/>
+        <v>0.25783146245977229</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="16.5">
       <c r="A26" s="3">
-        <v>72</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>5</v>
+        <v>71</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="H26" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="14">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="J26" s="14">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="K26" s="25">
-        <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="L26" s="25">
-        <f t="shared" si="20"/>
-        <v>0.5</v>
-      </c>
-      <c r="M26" s="9">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="N26" s="9">
+      <c r="H26" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H26,$B$21:$B$34,I$1)</f>
+        <v>5</v>
+      </c>
+      <c r="J26" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H26,$B$21:$B$34,J$1)</f>
+        <v>4</v>
+      </c>
+      <c r="K26" s="27">
         <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="O26" s="9">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="P26" s="26">
-        <f t="shared" ref="P26:P30" si="24">SUM(A10,I26:J26)/SUM($I$19:$J$20)</f>
-        <v>0.2857142857142857</v>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L26" s="27">
+        <f t="shared" si="14"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M26" s="12">
+        <f t="shared" si="8"/>
+        <v>0.4711093925305278</v>
+      </c>
+      <c r="N26" s="12">
+        <f t="shared" si="9"/>
+        <v>0.51996666730769436</v>
+      </c>
+      <c r="O26" s="12">
+        <f t="shared" si="15"/>
+        <v>0.99107605983822222</v>
+      </c>
+      <c r="P26" s="28">
+        <f>SUM(A8,I26:J26)/SUM($I$21:$J$22)</f>
+        <v>0.6428571428571429</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="23"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="R26" s="19">
+        <f t="shared" si="16"/>
+        <v>0.63712032418171438</v>
+      </c>
+      <c r="R26" s="29">
         <f>SUM(Q25:Q26)</f>
-        <v>0.91520778516478052</v>
+        <v>0.89495178664148667</v>
+      </c>
+      <c r="S26" s="3">
+        <f>$M$2-R26</f>
+        <v>4.5334172029144471e-002</v>
       </c>
     </row>
     <row r="27" ht="16.5">
       <c r="A27" s="3">
-        <v>75</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="H27" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="14">
-        <f t="shared" si="17"/>
+      <c r="H27" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H27,$B$21:$B$34,I$1)</f>
         <v>7</v>
       </c>
-      <c r="J27" s="14">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="K27" s="25">
-        <f t="shared" si="19"/>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="L27" s="25">
-        <f t="shared" si="20"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="M27" s="9">
-        <f t="shared" si="12"/>
-        <v>0.41495789782344117</v>
-      </c>
-      <c r="N27" s="9">
+      <c r="J27" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H27,$B$21:$B$34,J$1)</f>
+        <v>3</v>
+      </c>
+      <c r="K27" s="27">
         <f t="shared" si="13"/>
-        <v>0.53070240677719904</v>
-      </c>
-      <c r="O27" s="9">
-        <f t="shared" si="21"/>
-        <v>0.94566030460064021</v>
-      </c>
-      <c r="P27" s="26">
-        <f t="shared" si="24"/>
-        <v>0.7857142857142857</v>
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="L27" s="27">
+        <f t="shared" si="14"/>
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="M27" s="12">
+        <f t="shared" si="8"/>
+        <v>0.36020122098083079</v>
+      </c>
+      <c r="N27" s="12">
+        <f t="shared" si="9"/>
+        <v>0.52108967824986185</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" si="15"/>
+        <v>0.8812908992306927</v>
+      </c>
+      <c r="P27" s="28">
+        <f>SUM(A11,I27:J27)/SUM($I$21:$J$22)</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="23"/>
-        <v>0.74301881075764586</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>20</v>
+        <f t="shared" si="16"/>
+        <v>0.62949349945049482</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="16.5">
       <c r="A28" s="3">
-        <v>75</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <f>SUM(A1,A28:A29)/2</f>
-        <v>77.5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="H28" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="14">
-        <f t="shared" si="17"/>
+      <c r="H28" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H28,$B$21:$B$34,I$1)</f>
         <v>2</v>
       </c>
-      <c r="J28" s="14">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="K28" s="25">
-        <f t="shared" si="19"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L28" s="25">
-        <f t="shared" si="20"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M28" s="9">
-        <f t="shared" si="12"/>
-        <v>0.38997500048077083</v>
-      </c>
-      <c r="N28" s="9">
+      <c r="J28" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H28,$B$21:$B$34,J$1)</f>
+        <v>2</v>
+      </c>
+      <c r="K28" s="27">
         <f t="shared" si="13"/>
-        <v>0.52832083357371873</v>
-      </c>
-      <c r="O28" s="9">
-        <f t="shared" si="21"/>
-        <v>0.91829583405448956</v>
-      </c>
-      <c r="P28" s="26">
-        <f t="shared" si="24"/>
-        <v>0.21428571428571427</v>
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="27">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="N28" s="12">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P28" s="28">
+        <f>SUM(A12,I28:J28)/SUM($I$21:$J$22)</f>
+        <v>0.2857142857142857</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="23"/>
-        <v>0.19677767872596202</v>
-      </c>
-      <c r="R28" s="19">
+        <f t="shared" si="16"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="R28" s="29">
         <f>SUM(Q27:Q28)</f>
-        <v>0.93979648948360794</v>
+        <v>0.91520778516478052</v>
+      </c>
+      <c r="S28" s="3">
+        <f>$M$2-R28</f>
+        <v>2.5078173505850621e-002</v>
       </c>
     </row>
     <row r="29" ht="16.5">
       <c r="A29" s="3">
-        <v>80</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3">
-        <f>SUM(A1,A29:A30)/2</f>
-        <v>80.5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="H29" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="14">
-        <f t="shared" si="17"/>
-        <v>9</v>
-      </c>
-      <c r="J29" s="14">
-        <f t="shared" si="18"/>
+      <c r="H29" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H29,$B$21:$B$34,I$1)</f>
+        <v>7</v>
+      </c>
+      <c r="J29" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H29,$B$21:$B$34,J$1)</f>
         <v>4</v>
       </c>
-      <c r="K29" s="25">
-        <f t="shared" si="19"/>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="L29" s="25">
-        <f t="shared" si="20"/>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="M29" s="9">
-        <f t="shared" si="12"/>
-        <v>0.36727941925300145</v>
-      </c>
-      <c r="N29" s="9">
+      <c r="K29" s="27">
         <f t="shared" si="13"/>
-        <v>0.52321222096648989</v>
-      </c>
-      <c r="O29" s="9">
-        <f t="shared" si="21"/>
-        <v>0.89049164021949134</v>
-      </c>
-      <c r="P29" s="26">
-        <f t="shared" si="24"/>
-        <v>0.9285714285714286</v>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="L29" s="27">
+        <f t="shared" si="14"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="M29" s="12">
+        <f t="shared" si="8"/>
+        <v>0.41495789782344117</v>
+      </c>
+      <c r="N29" s="12">
+        <f t="shared" si="9"/>
+        <v>0.53070240677719904</v>
+      </c>
+      <c r="O29" s="12">
+        <f t="shared" si="15"/>
+        <v>0.94566030460064021</v>
+      </c>
+      <c r="P29" s="28">
+        <f>SUM(A13,I29:J29)/SUM($I$21:$J$22)</f>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="23"/>
-        <v>0.82688509448952774</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>20</v>
+        <f t="shared" si="16"/>
+        <v>0.74301881075764586</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="16.5">
       <c r="A30" s="3">
-        <v>81</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <f>SUM(A3,A30:A31)/2</f>
+        <v>77.5</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="H30" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="14">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="K30" s="25">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="25">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="M30" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="9">
+      <c r="H30" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H30,$B$21:$B$34,I$1)</f>
+        <v>2</v>
+      </c>
+      <c r="J30" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H30,$B$21:$B$34,J$1)</f>
+        <v>1</v>
+      </c>
+      <c r="K30" s="27">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="9">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="26">
-        <f t="shared" si="24"/>
-        <v>7.1428571428571425e-002</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L30" s="27">
+        <f t="shared" si="14"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M30" s="12">
+        <f t="shared" si="8"/>
+        <v>0.38997500048077083</v>
+      </c>
+      <c r="N30" s="12">
+        <f t="shared" si="9"/>
+        <v>0.52832083357371873</v>
+      </c>
+      <c r="O30" s="12">
+        <f t="shared" si="15"/>
+        <v>0.91829583405448956</v>
+      </c>
+      <c r="P30" s="28">
+        <f>SUM(A14,I30:J30)/SUM($I$21:$J$22)</f>
+        <v>0.21428571428571427</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="19">
+        <f t="shared" si="16"/>
+        <v>0.19677767872596202</v>
+      </c>
+      <c r="R30" s="29">
         <f>SUM(Q29:Q30)</f>
-        <v>0.82688509448952774</v>
+        <v>0.93979648948360794</v>
+      </c>
+      <c r="S30" s="3">
+        <f>$M$2-R30</f>
+        <v>4.8946918702319486e-004</v>
       </c>
     </row>
     <row r="31" ht="16.5">
       <c r="A31" s="3">
-        <v>83</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>5</v>
+        <v>80</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="C31" s="3">
-        <f>SUM(A31:A32)/2</f>
-        <v>84</v>
+        <f>SUM(A3,A31:A32)/2</f>
+        <v>80.5</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+      <c r="H31" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H31,$B$21:$B$34,I$1)</f>
+        <v>9</v>
+      </c>
+      <c r="J31" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H31,$B$21:$B$34,J$1)</f>
+        <v>4</v>
+      </c>
+      <c r="K31" s="27">
+        <f t="shared" si="13"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="L31" s="27">
+        <f t="shared" si="14"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="M31" s="12">
+        <f t="shared" si="8"/>
+        <v>0.36727941925300145</v>
+      </c>
+      <c r="N31" s="12">
+        <f t="shared" si="9"/>
+        <v>0.52321222096648989</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="15"/>
+        <v>0.89049164021949134</v>
+      </c>
+      <c r="P31" s="28">
+        <f>SUM(A15,I31:J31)/SUM($I$21:$J$22)</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" si="16"/>
+        <v>0.82688509448952774</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="32" ht="16.5">
       <c r="A32" s="3">
-        <v>85</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-    </row>
-    <row r="36" ht="16.5">
-      <c r="A36" s="2" t="s">
+      <c r="H32" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H32,$B$21:$B$34,I$1)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="17">
+        <f>COUNTIFS($A$21:$A$34,$H32,$B$21:$B$34,J$1)</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="27">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M32" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="28">
+        <f>SUM(A16,I32:J32)/SUM($I$21:$J$22)</f>
+        <v>7.1428571428571425e-002</v>
+      </c>
+      <c r="Q32" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="29">
+        <f>SUM(Q31:Q32)</f>
+        <v>0.82688509448952774</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5">
+      <c r="A33" s="3">
+        <v>83</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <f>SUM(A33:A34)/2</f>
+        <v>84</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" ht="16.5">
+      <c r="A34" s="3">
+        <v>85</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="C37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" ht="16.5">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N36" s="7" t="s">
+      <c r="M38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O36" s="7" t="s">
+      <c r="N38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="O38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q36" s="8" t="s">
+      <c r="Q38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R36" s="29"/>
-    </row>
-    <row r="37" ht="16.5">
-      <c r="A37" s="3">
-        <v>65</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="3">
-        <f>SUM(A37:A38)/2</f>
-        <v>67.5</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37" s="14">
-        <f t="shared" ref="I37:I42" si="25">COUNTIFS($A$37:$A$50,$H37,$B$37:$B$50,I$1)</f>
-        <v>1</v>
-      </c>
-      <c r="J37" s="14">
-        <f t="shared" ref="J37:J42" si="26">COUNTIFS($A$37:$A$50,$H37,$B$37:$B$50,J$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="25">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="L37" s="25">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="9">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="26">
-        <f>SUM(I37:J37)/SUM($I$37:$J$38)</f>
-        <v>7.1428571428571425e-002</v>
-      </c>
-      <c r="Q37" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" ht="16.5">
-      <c r="A38" s="3">
-        <v>70</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="H38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I38" s="14">
-        <f t="shared" si="25"/>
-        <v>8</v>
-      </c>
-      <c r="J38" s="14">
-        <f t="shared" si="26"/>
-        <v>5</v>
-      </c>
-      <c r="K38" s="25">
-        <f t="shared" si="19"/>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="L38" s="25">
-        <f t="shared" si="20"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="M38" s="9">
-        <f t="shared" si="12"/>
-        <v>0.43103982654836442</v>
-      </c>
-      <c r="N38" s="9">
-        <f t="shared" si="13"/>
-        <v>0.5301967781745115</v>
-      </c>
-      <c r="O38" s="9">
-        <f t="shared" si="21"/>
-        <v>0.96123660472287598</v>
-      </c>
-      <c r="P38" s="26">
-        <f>SUM(I38:J38)/SUM($I$19:$J$20)</f>
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="Q38" s="3">
-        <f t="shared" si="23"/>
-        <v>0.89257684724267061</v>
-      </c>
-      <c r="R38" s="30">
-        <f>SUM(Q37:Q38)</f>
-        <v>0.89257684724267061</v>
+      <c r="R38" s="32"/>
+      <c r="S38" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="16.5">
       <c r="A39" s="3">
-        <v>70</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
+        <f>SUM(A39:A40)/2</f>
+        <v>67.5</v>
+      </c>
       <c r="H39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I39" s="14">
-        <f t="shared" si="25"/>
-        <v>8</v>
-      </c>
-      <c r="J39" s="14">
-        <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="K39" s="25">
-        <f t="shared" si="19"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L39" s="25">
-        <f t="shared" si="20"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M39" s="9">
-        <f t="shared" si="12"/>
-        <v>0.38997500048077083</v>
-      </c>
-      <c r="N39" s="9">
+        <v>35</v>
+      </c>
+      <c r="I39" s="17">
+        <f>COUNTIFS($A$39:$A$52,$H39,$B$39:$B$52,I$1)</f>
+        <v>1</v>
+      </c>
+      <c r="J39" s="17">
+        <f>COUNTIFS($A$39:$A$52,$H39,$B$39:$B$52,J$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="27">
         <f t="shared" si="13"/>
-        <v>0.52832083357371873</v>
-      </c>
-      <c r="O39" s="9">
-        <f t="shared" si="21"/>
-        <v>0.91829583405448956</v>
-      </c>
-      <c r="P39" s="26">
-        <f>SUM(I39:J39)/SUM($I$37:$J$38)</f>
-        <v>0.8571428571428571</v>
+        <v>1</v>
+      </c>
+      <c r="L39" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="28">
+        <f>SUM(I39:J39)/SUM($I$39:$J$40)</f>
+        <v>7.1428571428571425e-002</v>
       </c>
       <c r="Q39" s="3">
-        <f t="shared" si="23"/>
-        <v>0.7871107149038481</v>
-      </c>
-      <c r="R39" s="11" t="s">
-        <v>20</v>
-      </c>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" s="33"/>
     </row>
     <row r="40" ht="16.5">
       <c r="A40" s="3">
         <v>70</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>5</v>
+      <c r="B40" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="C40" s="3"/>
       <c r="H40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="17">
+        <f>COUNTIFS($A$39:$A$52,$H40,$B$39:$B$52,I$1)</f>
+        <v>8</v>
+      </c>
+      <c r="J40" s="17">
+        <f>COUNTIFS($A$39:$A$52,$H40,$B$39:$B$52,J$1)</f>
+        <v>5</v>
+      </c>
+      <c r="K40" s="27">
+        <f t="shared" si="13"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="L40" s="27">
+        <f t="shared" si="14"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="M40" s="12">
+        <f t="shared" si="8"/>
+        <v>0.43103982654836442</v>
+      </c>
+      <c r="N40" s="12">
+        <f t="shared" si="9"/>
+        <v>0.5301967781745115</v>
+      </c>
+      <c r="O40" s="12">
+        <f t="shared" si="15"/>
+        <v>0.96123660472287598</v>
+      </c>
+      <c r="P40" s="28">
+        <f>SUM(I40:J40)/SUM($I$21:$J$22)</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q40" s="3">
+        <f t="shared" si="16"/>
+        <v>0.89257684724267061</v>
+      </c>
+      <c r="R40" s="34">
+        <f>SUM(Q39:Q40)</f>
+        <v>0.89257684724267061</v>
+      </c>
+      <c r="S40" s="3">
+        <f>$M$2-R40</f>
+        <v>4.7709111427960527e-002</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5">
+      <c r="A41" s="3">
+        <v>70</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="H41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="14">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="J40" s="14">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="K40" s="25">
-        <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="L40" s="25">
-        <f t="shared" si="20"/>
-        <v>0.5</v>
-      </c>
-      <c r="M40" s="9">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="N40" s="9">
+      <c r="I41" s="17">
+        <f>COUNTIFS($A$39:$A$52,$H41,$B$39:$B$52,I$1)</f>
+        <v>8</v>
+      </c>
+      <c r="J41" s="17">
+        <f>COUNTIFS($A$39:$A$52,$H41,$B$39:$B$52,J$1)</f>
+        <v>4</v>
+      </c>
+      <c r="K41" s="27">
+        <f t="shared" si="13"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L41" s="27">
+        <f t="shared" si="14"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M41" s="12">
+        <f t="shared" si="8"/>
+        <v>0.38997500048077083</v>
+      </c>
+      <c r="N41" s="12">
+        <f t="shared" si="9"/>
+        <v>0.52832083357371873</v>
+      </c>
+      <c r="O41" s="12">
+        <f t="shared" si="15"/>
+        <v>0.91829583405448956</v>
+      </c>
+      <c r="P41" s="28">
+        <f>SUM(I41:J41)/SUM($I$39:$J$40)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Q41" s="3">
+        <f t="shared" si="16"/>
+        <v>0.7871107149038481</v>
+      </c>
+      <c r="R41" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" s="33"/>
+    </row>
+    <row r="42" ht="16.5">
+      <c r="A42" s="3">
+        <v>70</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="17">
+        <f>COUNTIFS($A$39:$A$52,$H42,$B$39:$B$52,I$1)</f>
+        <v>1</v>
+      </c>
+      <c r="J42" s="17">
+        <f>COUNTIFS($A$39:$A$52,$H42,$B$39:$B$52,J$1)</f>
+        <v>1</v>
+      </c>
+      <c r="K42" s="27">
         <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
-      <c r="O40" s="9">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="P40" s="26">
-        <f>SUM(I40:J40)/SUM($I$19:$J$20)</f>
+      <c r="L42" s="27">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="M42" s="12">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="N42" s="12">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="O42" s="12">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P42" s="28">
+        <f>SUM(I42:J42)/SUM($I$21:$J$22)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="Q40" s="3">
-        <f t="shared" si="23"/>
+      <c r="Q42" s="3">
+        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="R40" s="30">
-        <f>SUM(Q39:Q40)</f>
+      <c r="R42" s="35">
+        <f>SUM(Q41:Q42)</f>
         <v>0.92996785776099089</v>
       </c>
-    </row>
-    <row r="41" ht="16.5">
-      <c r="A41" s="3">
-        <v>75</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="H41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="14">
-        <f t="shared" si="25"/>
-        <v>8</v>
-      </c>
-      <c r="J41" s="14">
-        <f t="shared" si="26"/>
-        <v>5</v>
-      </c>
-      <c r="K41" s="25">
-        <f t="shared" si="19"/>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="L41" s="25">
-        <f t="shared" si="20"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="M41" s="9">
-        <f t="shared" si="12"/>
-        <v>0.43103982654836442</v>
-      </c>
-      <c r="N41" s="9">
-        <f t="shared" si="13"/>
-        <v>0.5301967781745115</v>
-      </c>
-      <c r="O41" s="9">
-        <f t="shared" si="21"/>
-        <v>0.96123660472287598</v>
-      </c>
-      <c r="P41" s="26">
-        <f>SUM(I41:J41)/SUM($I$37:$J$38)</f>
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="Q41" s="3">
-        <f t="shared" si="23"/>
-        <v>0.89257684724267061</v>
-      </c>
-      <c r="R41" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5">
-      <c r="A42" s="3">
-        <v>78</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="H42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42" s="14">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="J42" s="14">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="25">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="L42" s="25">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="9">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="26">
-        <f>SUM(I42:J42)/SUM($I$19:$J$20)</f>
-        <v>7.1428571428571425e-002</v>
-      </c>
-      <c r="Q42" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="30">
-        <f>SUM(Q41:Q42)</f>
-        <v>0.89257684724267061</v>
+      <c r="S42" s="3">
+        <f>$M$2-R42</f>
+        <v>1.0318100909640249e-002</v>
       </c>
     </row>
     <row r="43" ht="16.5">
       <c r="A43" s="3">
-        <v>80</v>
-      </c>
-      <c r="B43" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="H43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="17">
+        <f>COUNTIFS($A$39:$A$52,$H43,$B$39:$B$52,I$1)</f>
+        <v>8</v>
+      </c>
+      <c r="J43" s="17">
+        <f>COUNTIFS($A$39:$A$52,$H43,$B$39:$B$52,J$1)</f>
         <v>5</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="22"/>
+      <c r="K43" s="27">
+        <f t="shared" si="13"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="L43" s="27">
+        <f t="shared" si="14"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="M43" s="12">
+        <f t="shared" si="8"/>
+        <v>0.43103982654836442</v>
+      </c>
+      <c r="N43" s="12">
+        <f t="shared" si="9"/>
+        <v>0.5301967781745115</v>
+      </c>
+      <c r="O43" s="12">
+        <f t="shared" si="15"/>
+        <v>0.96123660472287598</v>
+      </c>
+      <c r="P43" s="28">
+        <f>SUM(I43:J43)/SUM($I$39:$J$40)</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q43" s="3">
+        <f t="shared" si="16"/>
+        <v>0.89257684724267061</v>
+      </c>
+      <c r="R43" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S43" s="33"/>
     </row>
     <row r="44" ht="16.5">
       <c r="A44" s="3">
-        <v>80</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>5</v>
+        <v>78</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="G44" s="1"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="33"/>
+      <c r="H44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" s="17">
+        <f>COUNTIFS($A$39:$A$52,$H44,$B$39:$B$52,I$1)</f>
+        <v>1</v>
+      </c>
+      <c r="J44" s="17">
+        <f>COUNTIFS($A$39:$A$52,$H44,$B$39:$B$52,J$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="27">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="L44" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="28">
+        <f>SUM(I44:J44)/SUM($I$21:$J$22)</f>
+        <v>7.1428571428571425e-002</v>
+      </c>
+      <c r="Q44" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="35">
+        <f>SUM(Q43:Q44)</f>
+        <v>0.89257684724267061</v>
+      </c>
+      <c r="S44" s="3">
+        <f>$M$2-R44</f>
+        <v>4.7709111427960527e-002</v>
+      </c>
     </row>
     <row r="45" ht="16.5">
       <c r="A45" s="3">
         <v>80</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>6</v>
+      <c r="B45" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="E45" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="22"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="24"/>
     </row>
     <row r="46" ht="16.5">
       <c r="A46" s="3">
-        <v>85</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="33"/>
+      <c r="G46" s="1"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="18"/>
     </row>
     <row r="47" ht="16.5">
       <c r="A47" s="3">
-        <v>90</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="22"/>
+      <c r="E47" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="24"/>
     </row>
     <row r="48" ht="16.5">
       <c r="A48" s="3">
-        <v>90</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="3">
-        <f t="shared" ref="C48:C49" si="27">SUM(A48:A49)/2</f>
-        <v>92.5</v>
-      </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="33"/>
+        <v>85</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="18"/>
     </row>
     <row r="49" ht="16.5">
       <c r="A49" s="3">
-        <v>95</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="3">
-        <f t="shared" si="27"/>
-        <v>95.5</v>
-      </c>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="22"/>
+        <v>90</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="24"/>
     </row>
     <row r="50" ht="16.5">
       <c r="A50" s="3">
+        <v>90</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" ref="C50:C51" si="17">SUM(A50:A51)/2</f>
+        <v>92.5</v>
+      </c>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="18"/>
+    </row>
+    <row r="51" ht="16.5">
+      <c r="A51" s="3">
+        <v>95</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="17"/>
+        <v>95.5</v>
+      </c>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="24"/>
+    </row>
+    <row r="52" ht="16.5">
+      <c r="A52" s="3">
         <v>96</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="33"/>
-    </row>
-    <row r="54" ht="16.5">
-      <c r="A54" s="2" t="s">
+      <c r="B52" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="18"/>
+    </row>
+    <row r="56" ht="16.5">
+      <c r="A56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" ht="16.5">
-      <c r="A55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="3">
-        <v>85</v>
-      </c>
-      <c r="C55" s="3">
-        <v>85</v>
-      </c>
-      <c r="D55" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-    </row>
-    <row r="56" ht="16.5">
-      <c r="A56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="3">
-        <v>80</v>
-      </c>
-      <c r="C56" s="3">
-        <v>90</v>
-      </c>
-      <c r="D56" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="3">
-        <v>85</v>
-      </c>
-      <c r="H56" s="3">
-        <v>85</v>
-      </c>
-      <c r="I56" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L56" s="3">
-        <v>70</v>
-      </c>
-      <c r="M56" s="3">
-        <v>96</v>
-      </c>
-      <c r="N56" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
+      <c r="D56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" ht="16.5">
       <c r="A57" s="3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B57" s="3">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C57" s="3">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D57" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="3">
-        <v>80</v>
-      </c>
-      <c r="H57" s="3">
-        <v>90</v>
-      </c>
-      <c r="I57" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L57" s="3">
-        <v>68</v>
-      </c>
-      <c r="M57" s="3">
-        <v>80</v>
-      </c>
-      <c r="N57" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
+      <c r="E57" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
     </row>
     <row r="58" ht="16.5">
       <c r="A58" s="3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B58" s="3">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C58" s="3">
+        <v>90</v>
+      </c>
+      <c r="D58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="3">
+        <v>85</v>
+      </c>
+      <c r="H58" s="3">
+        <v>85</v>
+      </c>
+      <c r="I58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L58" s="3">
         <v>70</v>
       </c>
-      <c r="D58" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>72</v>
-      </c>
-      <c r="H58" s="3">
-        <v>95</v>
-      </c>
-      <c r="I58" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L58" s="3">
-        <v>65</v>
-      </c>
       <c r="M58" s="3">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="N58" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O58" s="5" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="P58" s="1"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="36"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
     </row>
     <row r="59" ht="16.5">
       <c r="A59" s="3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B59" s="3">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C59" s="3">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D59" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="G59" s="3">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H59" s="3">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I59" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="L59" s="3">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="M59" s="3">
         <v>80</v>
@@ -8062,105 +8132,155 @@
       <c r="N59" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="O59" s="13" t="s">
-        <v>5</v>
+      <c r="O59" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="P59" s="1"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="36"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
     </row>
     <row r="60" ht="16.5">
       <c r="A60" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B60" s="3">
+        <v>69</v>
+      </c>
+      <c r="C60" s="3">
         <v>70</v>
       </c>
-      <c r="C60" s="3">
-        <v>96</v>
-      </c>
       <c r="D60" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G60" s="3">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H60" s="3">
+        <v>95</v>
+      </c>
+      <c r="I60" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L60" s="3">
+        <v>65</v>
+      </c>
+      <c r="M60" s="3">
         <v>70</v>
       </c>
-      <c r="I60" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
-        <v>71</v>
-      </c>
-      <c r="M60" s="3">
-        <v>80</v>
-      </c>
       <c r="N60" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O60" s="5" t="s">
-        <v>6</v>
+      <c r="O60" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="39"/>
     </row>
     <row r="61" ht="16.5">
       <c r="A61" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B61" s="3">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C61" s="3">
+        <v>70</v>
+      </c>
+      <c r="D61" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>69</v>
+      </c>
+      <c r="H61" s="3">
+        <v>70</v>
+      </c>
+      <c r="I61" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L61" s="3">
+        <v>75</v>
+      </c>
+      <c r="M61" s="3">
         <v>80</v>
       </c>
-      <c r="D61" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="N61" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O61" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="39"/>
     </row>
     <row r="62" ht="16.5">
       <c r="A62" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B62" s="3">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C62" s="3">
+        <v>96</v>
+      </c>
+      <c r="D62" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>75</v>
+      </c>
+      <c r="H62" s="3">
         <v>70</v>
       </c>
-      <c r="D62" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
+      <c r="I62" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L62" s="3">
+        <v>71</v>
+      </c>
+      <c r="M62" s="3">
+        <v>80</v>
+      </c>
+      <c r="N62" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P62" s="1"/>
     </row>
     <row r="63" ht="16.5">
       <c r="A63" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B63" s="3">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C63" s="3">
         <v>80</v>
@@ -8168,69 +8288,67 @@
       <c r="D63" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E63" s="13" t="s">
-        <v>5</v>
+      <c r="E63" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="64" ht="16.5">
       <c r="A64" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B64" s="3">
+        <v>65</v>
+      </c>
+      <c r="C64" s="3">
+        <v>70</v>
+      </c>
+      <c r="D64" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+    </row>
+    <row r="65" ht="16.5">
+      <c r="A65" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="3">
+        <v>75</v>
+      </c>
+      <c r="C65" s="3">
+        <v>80</v>
+      </c>
+      <c r="D65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="16.5">
+      <c r="A66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="3">
         <v>71</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C66" s="3">
         <v>80</v>
       </c>
-      <c r="D64" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" ht="14.25">
-      <c r="A65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="3">
-        <v>83</v>
-      </c>
-      <c r="C65" s="3">
-        <v>78</v>
-      </c>
-      <c r="D65" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" ht="14.25">
-      <c r="A66" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="3">
-        <v>64</v>
-      </c>
-      <c r="C66" s="3">
-        <v>65</v>
-      </c>
       <c r="D66" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
+      <c r="E66" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -8240,19 +8358,19 @@
     </row>
     <row r="67" ht="14.25">
       <c r="A67" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B67" s="3">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C67" s="3">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D67" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -8262,19 +8380,19 @@
     </row>
     <row r="68" ht="14.25">
       <c r="A68" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B68" s="3">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C68" s="3">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D68" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -8283,6 +8401,21 @@
       <c r="K68" s="1"/>
     </row>
     <row r="69" ht="14.25">
+      <c r="A69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="3">
+        <v>72</v>
+      </c>
+      <c r="C69" s="3">
+        <v>90</v>
+      </c>
+      <c r="D69" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>1</v>
+      </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -8290,6 +8423,21 @@
       <c r="K69" s="1"/>
     </row>
     <row r="70" ht="14.25">
+      <c r="A70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="3">
+        <v>81</v>
+      </c>
+      <c r="C70" s="3">
+        <v>75</v>
+      </c>
+      <c r="D70" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>1</v>
+      </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -8352,16 +8500,30 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
+    <row r="79" ht="14.25">
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A54:E54">
-    <sortState ref="A54">
-      <sortCondition descending="1" ref="A54"/>
+  <autoFilter ref="A56:E56">
+    <sortState ref="A56">
+      <sortCondition descending="1" ref="A56"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="E45:K45"/>
-    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="E47:K48"/>
+    <mergeCell ref="G64:L64"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -8384,11 +8546,9 @@
     <col customWidth="1" min="2" max="2" style="1" width="11.7109375"/>
     <col customWidth="1" min="3" max="3" style="1" width="11.421875"/>
     <col customWidth="1" min="4" max="4" style="1" width="11.140625"/>
-    <col min="5" max="5" style="1" width="9.140625"/>
-    <col min="6" max="7" style="1" width="9.140625"/>
+    <col min="5" max="7" style="1" width="9.140625"/>
     <col customWidth="1" min="8" max="8" style="1" width="14.421875"/>
-    <col min="9" max="9" style="1" width="9.140625"/>
-    <col min="10" max="10" style="1" width="9.140625"/>
+    <col min="9" max="10" style="1" width="9.140625"/>
     <col bestFit="1" min="11" max="11" style="1" width="10.48046875"/>
     <col customWidth="1" min="12" max="12" style="1" width="13.00390625"/>
     <col customWidth="1" min="13" max="13" style="1" width="14.00390625"/>
@@ -8406,13 +8566,13 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="H1" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -8439,46 +8599,46 @@
     </row>
     <row r="4" ht="16.5">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="L4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="N4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="O4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8492,47 +8652,47 @@
       <c r="C5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="15"/>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="14">
-        <f>COUNTIFS($C$5:$C$9,$H5,$D$5:$D$9,I$1)</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="14">
-        <f>COUNTIFS($C$5:$C$9,H5,$D$5:$D$9,J$1)</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="9">
-        <f>I5/SUM($I5,$J5)</f>
+      <c r="I5" s="17">
+        <f t="shared" ref="I5:I6" si="18">COUNTIFS($C$5:$C$9,$H5,$D$5:$D$9,I$1)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" ref="J5:J6" si="19">COUNTIFS($C$5:$C$9,H5,$D$5:$D$9,J$1)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" ref="K5:K6" si="20">I5/SUM($I5,$J5)</f>
         <v>0.5</v>
       </c>
-      <c r="L5" s="9">
-        <f>J5/SUM($I5,$J5)</f>
+      <c r="L5" s="12">
+        <f t="shared" ref="L5:L6" si="21">J5/SUM($I5,$J5)</f>
         <v>0.5</v>
       </c>
-      <c r="M5" s="10">
-        <f>-IFERROR($K5*LOG($K5,2),0)</f>
+      <c r="M5" s="13">
+        <f t="shared" ref="M5:M6" si="22">-IFERROR($K5*LOG($K5,2),0)</f>
         <v>0.5</v>
       </c>
-      <c r="N5" s="10">
-        <f>-IFERROR($L5*LOG($L5,2),0)</f>
+      <c r="N5" s="13">
+        <f t="shared" ref="N5:N6" si="23">-IFERROR($L5*LOG($L5,2),0)</f>
         <v>0.5</v>
       </c>
-      <c r="O5" s="10">
-        <f>SUM(M5,N5)</f>
-        <v>1</v>
-      </c>
-      <c r="P5" s="39">
-        <f>SUM($I5:$J5)/SUM($I$4:$J$6)</f>
+      <c r="O5" s="13">
+        <f t="shared" ref="O5:O6" si="24">SUM(M5,N5)</f>
+        <v>1</v>
+      </c>
+      <c r="P5" s="41">
+        <f t="shared" ref="P5:P6" si="25">SUM($I5:$J5)/SUM($I$4:$J$6)</f>
         <v>0.40000000000000002</v>
       </c>
       <c r="Q5" s="3">
-        <f>O5*P5</f>
+        <f t="shared" ref="Q5:Q6" si="26">O5*P5</f>
         <v>0.40000000000000002</v>
       </c>
     </row>
@@ -8546,47 +8706,47 @@
       <c r="C6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="15"/>
+      <c r="D6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="14">
-        <f>COUNTIFS($C$5:$C$9,$H6,$D$5:$D$9,I$1)</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="14">
-        <f>COUNTIFS($C$5:$C$9,H6,$D$5:$D$9,J$1)</f>
+      <c r="I6" s="17">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="K6" s="9">
-        <f>I6/SUM($I6,$J6)</f>
+      <c r="K6" s="12">
+        <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L6" s="9">
-        <f>J6/SUM($I6,$J6)</f>
+      <c r="L6" s="12">
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M6" s="10">
-        <f>-IFERROR($K6*LOG($K6,2),0)</f>
+      <c r="M6" s="13">
+        <f t="shared" si="22"/>
         <v>0.52832083357371873</v>
       </c>
-      <c r="N6" s="10">
-        <f>-IFERROR($L6*LOG($L6,2),0)</f>
+      <c r="N6" s="13">
+        <f t="shared" si="23"/>
         <v>0.38997500048077083</v>
       </c>
-      <c r="O6" s="10">
-        <f>SUM(M6,N6)</f>
+      <c r="O6" s="13">
+        <f t="shared" si="24"/>
         <v>0.91829583405448956</v>
       </c>
-      <c r="P6" s="39">
-        <f>SUM($I6:$J6)/SUM($I$4:$J$6)</f>
+      <c r="P6" s="41">
+        <f t="shared" si="25"/>
         <v>0.59999999999999998</v>
       </c>
       <c r="Q6" s="3">
-        <f>O6*P6</f>
+        <f t="shared" si="26"/>
         <v>0.55097750043269367</v>
       </c>
     </row>
@@ -8600,21 +8760,21 @@
       <c r="C7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
+      <c r="D7" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="19">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="29">
         <f>SUM(Q5:Q6)</f>
         <v>0.95097750043269369</v>
       </c>
@@ -8630,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="16.5">
@@ -8644,165 +8804,165 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="16.5">
       <c r="A13" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="H13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="H13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" s="7" t="s">
+      <c r="M13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="N13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="O13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="23"/>
+      <c r="R13" s="25"/>
     </row>
     <row r="14" ht="16.5">
       <c r="A14" s="3">
         <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <f>SUM(A14:A15)/2</f>
+        <f t="shared" ref="C14:C16" si="27">SUM(A14:A15)/2</f>
         <v>70.5</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="H14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H14,$B$14:$B$18,I$1)</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H14,$B$14:$B$18,J$1)</f>
+        <v>27</v>
+      </c>
+      <c r="I14" s="17">
+        <f t="shared" ref="I14:I19" si="28">COUNTIFS($A$14:$A$18,$H14,$B$14:$B$18,I$1)</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" ref="J14:J19" si="29">COUNTIFS($A$14:$A$18,$H14,$B$14:$B$18,J$1)</f>
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <f>$I14/SUM($I14:$J14)</f>
+        <f t="shared" ref="K14:K24" si="30">$I14/SUM($I14:$J14)</f>
         <v>1</v>
       </c>
       <c r="L14" s="3">
-        <f>$J14/SUM($I14:$J14)</f>
+        <f t="shared" ref="L14:L24" si="31">$J14/SUM($I14:$J14)</f>
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <f>-IFERROR($K14*LOG($K14,2),0)</f>
+        <f t="shared" ref="M14:M24" si="32">-IFERROR($K14*LOG($K14,2),0)</f>
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <f>-IFERROR($L14*LOG($L14,2),0)</f>
+        <f t="shared" ref="N14:N24" si="33">-IFERROR($L14*LOG($L14,2),0)</f>
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <f>SUM(M14:N14)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="14">
-        <f>SUM(I14:J14)/SUM($I$14:$J$15)</f>
+        <f t="shared" ref="O14:O24" si="34">SUM(M14:N14)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
+        <f t="shared" ref="P14:P24" si="35">SUM(I14:J14)/SUM($I$14:$J$15)</f>
         <v>0.20000000000000001</v>
       </c>
       <c r="Q14" s="3">
-        <f>O14*P14</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>20</v>
+        <f t="shared" ref="Q14:Q24" si="36">O14*P14</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="16.5">
       <c r="A15" s="3">
         <v>72</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="42">
-        <f>SUM(A15:A16)/2</f>
+      <c r="B15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="27"/>
         <v>73.5</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="H15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H15,$B$14:$B$18,I$1)</f>
-        <v>1</v>
-      </c>
-      <c r="J15" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H15,$B$14:$B$18,J$1)</f>
+        <v>28</v>
+      </c>
+      <c r="I15" s="17">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="17">
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="K15" s="3">
-        <f>$I15/SUM($I15:$J15)</f>
+        <f t="shared" si="30"/>
         <v>0.25</v>
       </c>
       <c r="L15" s="3">
-        <f>$J15/SUM($I15:$J15)</f>
+        <f t="shared" si="31"/>
         <v>0.75</v>
       </c>
       <c r="M15" s="3">
-        <f>-IFERROR($K15*LOG($K15,2),0)</f>
+        <f t="shared" si="32"/>
         <v>0.5</v>
       </c>
       <c r="N15" s="3">
-        <f>-IFERROR($L15*LOG($L15,2),0)</f>
+        <f t="shared" si="33"/>
         <v>0.31127812445913283</v>
       </c>
       <c r="O15" s="3">
-        <f>SUM(M15:N15)</f>
+        <f t="shared" si="34"/>
         <v>0.81127812445913283</v>
       </c>
-      <c r="P15" s="14">
-        <f>SUM(I15:J15)/SUM($I$14:$J$15)</f>
+      <c r="P15" s="17">
+        <f t="shared" si="35"/>
         <v>0.80000000000000004</v>
       </c>
       <c r="Q15" s="3">
-        <f>O15*P15</f>
+        <f t="shared" si="36"/>
         <v>0.64902249956730629</v>
       </c>
-      <c r="R15" s="19">
+      <c r="R15" s="29">
         <f>SUM(Q14:Q15)</f>
         <v>0.64902249956730629</v>
       </c>
@@ -8812,109 +8972,109 @@
         <v>75</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="42">
-        <f>SUM(A16:A17)/2</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="27"/>
         <v>77.5</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="H16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H16,$B$14:$B$18,I$1)</f>
-        <v>1</v>
-      </c>
-      <c r="J16" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H16,$B$14:$B$18,J$1)</f>
+        <v>44</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="K16" s="3">
-        <f>$I16/SUM($I16:$J16)</f>
+        <f t="shared" si="30"/>
         <v>0.5</v>
       </c>
       <c r="L16" s="3">
-        <f>$J16/SUM($I16:$J16)</f>
+        <f t="shared" si="31"/>
         <v>0.5</v>
       </c>
       <c r="M16" s="3">
-        <f>-IFERROR($K16*LOG($K16,2),0)</f>
+        <f t="shared" si="32"/>
         <v>0.5</v>
       </c>
       <c r="N16" s="3">
-        <f>-IFERROR($L16*LOG($L16,2),0)</f>
+        <f t="shared" si="33"/>
         <v>0.5</v>
       </c>
       <c r="O16" s="3">
-        <f>SUM(M16:N16)</f>
-        <v>1</v>
-      </c>
-      <c r="P16" s="14">
-        <f>SUM(I16:J16)/SUM($I$14:$J$15)</f>
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="P16" s="17">
+        <f t="shared" si="35"/>
         <v>0.40000000000000002</v>
       </c>
       <c r="Q16" s="3">
-        <f>O16*P16</f>
+        <f t="shared" si="36"/>
         <v>0.40000000000000002</v>
       </c>
-      <c r="R16" s="11" t="s">
-        <v>20</v>
+      <c r="R16" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="16.5">
       <c r="A17" s="3">
         <v>80</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
+      <c r="B17" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="H17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H17,$B$14:$B$18,I$1)</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H17,$B$14:$B$18,J$1)</f>
+        <v>45</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="K17" s="3">
-        <f>$I17/SUM($I17:$J17)</f>
+        <f t="shared" si="30"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="L17" s="3">
-        <f>$J17/SUM($I17:$J17)</f>
+        <f t="shared" si="31"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="M17" s="3">
-        <f>-IFERROR($K17*LOG($K17,2),0)</f>
+        <f t="shared" si="32"/>
         <v>0.52832083357371873</v>
       </c>
       <c r="N17" s="3">
-        <f>-IFERROR($L17*LOG($L17,2),0)</f>
+        <f t="shared" si="33"/>
         <v>0.38997500048077083</v>
       </c>
       <c r="O17" s="3">
-        <f>SUM(M17:N17)</f>
+        <f t="shared" si="34"/>
         <v>0.91829583405448956</v>
       </c>
-      <c r="P17" s="14">
-        <f>SUM(I17:J17)/SUM($I$14:$J$15)</f>
+      <c r="P17" s="17">
+        <f t="shared" si="35"/>
         <v>0.59999999999999998</v>
       </c>
       <c r="Q17" s="3">
-        <f>O17*P17</f>
+        <f t="shared" si="36"/>
         <v>0.55097750043269367</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R17" s="29">
         <f>SUM(Q16:Q17)</f>
         <v>0.95097750043269369</v>
       </c>
@@ -8923,220 +9083,220 @@
       <c r="A18" s="3">
         <v>85</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>6</v>
+      <c r="B18" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="H18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H18,$B$14:$B$18,I$1)</f>
+        <v>29</v>
+      </c>
+      <c r="I18" s="17">
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
-      <c r="J18" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H18,$B$14:$B$18,J$1)</f>
+      <c r="J18" s="17">
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="K18" s="3">
-        <f>$I18/SUM($I18:$J18)</f>
+        <f t="shared" si="30"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="L18" s="3">
-        <f>$J18/SUM($I18:$J18)</f>
+        <f t="shared" si="31"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M18" s="3">
-        <f>-IFERROR($K18*LOG($K18,2),0)</f>
+        <f t="shared" si="32"/>
         <v>0.38997500048077083</v>
       </c>
       <c r="N18" s="3">
-        <f>-IFERROR($L18*LOG($L18,2),0)</f>
+        <f t="shared" si="33"/>
         <v>0.52832083357371873</v>
       </c>
       <c r="O18" s="3">
-        <f>SUM(M18:N18)</f>
+        <f t="shared" si="34"/>
         <v>0.91829583405448956</v>
       </c>
-      <c r="P18" s="14">
-        <f>SUM(I18:J18)/SUM($I$14:$J$15)</f>
+      <c r="P18" s="17">
+        <f t="shared" si="35"/>
         <v>0.59999999999999998</v>
       </c>
       <c r="Q18" s="3">
-        <f>O18*P18</f>
+        <f t="shared" si="36"/>
         <v>0.55097750043269367</v>
       </c>
-      <c r="R18" s="11" t="s">
-        <v>20</v>
+      <c r="R18" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="16.5">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
       <c r="H19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H19,$B$14:$B$18,I$1)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H19,$B$14:$B$18,J$1)</f>
+        <v>30</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="K19" s="3">
-        <f>$I19/SUM($I19:$J19)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L19" s="3">
-        <f>$J19/SUM($I19:$J19)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="M19" s="3">
-        <f>-IFERROR($K19*LOG($K19,2),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N19" s="3">
-        <f>-IFERROR($L19*LOG($L19,2),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O19" s="3">
-        <f>SUM(M19:N19)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="14">
-        <f>SUM(I19:J19)/SUM($I$14:$J$15)</f>
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="17">
+        <f t="shared" si="35"/>
         <v>0.40000000000000002</v>
       </c>
       <c r="Q19" s="3">
-        <f>O19*P19</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="29">
         <f>SUM(Q18:Q19)</f>
         <v>0.55097750043269367</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" ht="16.5">
       <c r="A22" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="H22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="H22" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="7" t="s">
+      <c r="M22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="N22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="O22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R22" s="23"/>
+      <c r="R22" s="25"/>
     </row>
     <row r="23" ht="16.5">
       <c r="A23" s="3">
         <v>70</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="14">
-        <f>COUNTIFS($A$23:$A$27,$H23,$B$23:$B$27,I$1)</f>
+        <v>29</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" ref="I23:I24" si="37">COUNTIFS($A$23:$A$27,$H23,$B$23:$B$27,I$1)</f>
         <v>2</v>
       </c>
-      <c r="J23" s="14">
-        <f>COUNTIFS($A$23:$A$27,$H23,$B$23:$B$27,J$1)</f>
+      <c r="J23" s="17">
+        <f t="shared" ref="J23:J24" si="38">COUNTIFS($A$23:$A$27,$H23,$B$23:$B$27,J$1)</f>
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <f>$I23/SUM($I23:$J23)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="L23" s="3">
-        <f>$J23/SUM($I23:$J23)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <f>-IFERROR($K23*LOG($K23,2),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <f>-IFERROR($L23*LOG($L23,2),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <f>SUM(M23:N23)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="14">
-        <f>SUM(I23:J23)/SUM($I$14:$J$15)</f>
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="17">
+        <f t="shared" si="35"/>
         <v>0.40000000000000002</v>
       </c>
       <c r="Q23" s="3">
-        <f>O23*P23</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>20</v>
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="16.5">
@@ -9144,55 +9304,55 @@
         <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3">
         <f>SUM($A$24:$A$25)/2</f>
         <v>77.5</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="14">
-        <f>COUNTIFS($A$23:$A$27,$H24,$B$23:$B$27,I$1)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="14">
-        <f>COUNTIFS($A$23:$A$27,$H24,$B$23:$B$27,J$1)</f>
+        <v>30</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <f t="shared" si="38"/>
         <v>3</v>
       </c>
       <c r="K24" s="3">
-        <f>$I24/SUM($I24:$J24)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <f>$J24/SUM($I24:$J24)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="M24" s="3">
-        <f>-IFERROR($K24*LOG($K24,2),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <f>-IFERROR($L24*LOG($L24,2),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <f>SUM(M24:N24)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="14">
-        <f>SUM(I24:J24)/SUM($I$14:$J$15)</f>
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="17">
+        <f t="shared" si="35"/>
         <v>0.59999999999999998</v>
       </c>
       <c r="Q24" s="3">
-        <f>O24*P24</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="44">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="45">
         <f>SUM(Q23:Q24)</f>
         <v>0</v>
       </c>
@@ -9201,64 +9361,64 @@
       <c r="A25" s="3">
         <v>85</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>6</v>
+      <c r="B25" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" ht="16.5">
       <c r="A26" s="3">
         <v>90</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>6</v>
+      <c r="B26" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
     </row>
     <row r="27" ht="16.5">
       <c r="A27" s="3">
         <v>95</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>6</v>
+      <c r="B27" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="38" ht="16.5">
       <c r="K38" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" ht="16.5">
@@ -9272,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="16.5">
@@ -9286,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" ht="16.5">
@@ -9299,8 +9459,8 @@
       <c r="M41" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="N41" s="5" t="s">
-        <v>6</v>
+      <c r="N41" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="42" ht="16.5">
@@ -9313,8 +9473,8 @@
       <c r="M42" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="N42" s="13" t="s">
-        <v>5</v>
+      <c r="N42" s="16" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="16.5">
@@ -9327,8 +9487,8 @@
       <c r="M43" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="N43" s="5" t="s">
-        <v>6</v>
+      <c r="N43" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9355,7 +9515,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.7109375"/>
     <col customWidth="1" min="2" max="2" width="12.00390625"/>
@@ -9373,13 +9533,13 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="H1" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -9406,60 +9566,60 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" ht="16.5">
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" ht="16.5">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="L4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="N4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="O4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="R4" s="1"/>
@@ -9476,45 +9636,45 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="14">
-        <f>COUNTIFS($C$5:$C$9,$H5,$D$5:$D$9,I$1)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
-        <f>COUNTIFS($C$5:$C$9,H5,$D$5:$D$9,J$1)</f>
+      <c r="I5" s="17">
+        <f t="shared" ref="I5:I6" si="39">COUNTIFS($C$5:$C$9,$H5,$D$5:$D$9,I$1)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" ref="J5:J6" si="40">COUNTIFS($C$5:$C$9,H5,$D$5:$D$9,J$1)</f>
         <v>2</v>
       </c>
-      <c r="K5" s="9">
-        <f>I5/SUM($I5,$J5)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <f>J5/SUM($I5,$J5)</f>
-        <v>1</v>
-      </c>
-      <c r="M5" s="10">
-        <f>-IFERROR($K5*LOG($K5,2),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <f>-IFERROR($L5*LOG($L5,2),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="10">
-        <f>SUM(M5,N5)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="39">
-        <f>SUM($I5:$J5)/SUM($I$4:$J$6)</f>
+      <c r="K5" s="12">
+        <f t="shared" ref="K5:K6" si="41">I5/SUM($I5,$J5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" ref="L5:L6" si="42">J5/SUM($I5,$J5)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="13">
+        <f t="shared" ref="M5:M6" si="43">-IFERROR($K5*LOG($K5,2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <f t="shared" ref="N5:N6" si="44">-IFERROR($L5*LOG($L5,2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="13">
+        <f t="shared" ref="O5:O6" si="45">SUM(M5,N5)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="41">
+        <f t="shared" ref="P5:P6" si="46">SUM($I5:$J5)/SUM($I$4:$J$6)</f>
         <v>0.40000000000000002</v>
       </c>
       <c r="Q5" s="3">
-        <f>O5*P5</f>
+        <f t="shared" ref="Q5:Q6" si="47">O5*P5</f>
         <v>0</v>
       </c>
       <c r="R5" s="1"/>
@@ -9531,45 +9691,45 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="14">
-        <f>COUNTIFS($C$5:$C$9,$H6,$D$5:$D$9,I$1)</f>
+      <c r="I6" s="17">
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
-      <c r="J6" s="14">
-        <f>COUNTIFS($C$5:$C$9,H6,$D$5:$D$9,J$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <f>I6/SUM($I6,$J6)</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="9">
-        <f>J6/SUM($I6,$J6)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="10">
-        <f>-IFERROR($K6*LOG($K6,2),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="10">
-        <f>-IFERROR($L6*LOG($L6,2),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="10">
-        <f>SUM(M6,N6)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="39">
-        <f>SUM($I6:$J6)/SUM($I$4:$J$6)</f>
+      <c r="J6" s="17">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="13">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="41">
+        <f t="shared" si="46"/>
         <v>0.59999999999999998</v>
       </c>
       <c r="Q6" s="3">
-        <f>O6*P6</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="R6" s="1"/>
@@ -9585,21 +9745,21 @@
       <c r="C7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
+      <c r="D7" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="48">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="49">
         <f>SUM(Q5:Q6)</f>
         <v>0</v>
       </c>
@@ -9616,8 +9776,8 @@
       <c r="C8" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>5</v>
+      <c r="D8" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -9642,8 +9802,8 @@
       <c r="C9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>6</v>
+      <c r="D9" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -9687,114 +9847,114 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" ht="16.5">
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" ht="16.5">
       <c r="A13" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" s="7" t="s">
+      <c r="M13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="N13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="O13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="23"/>
+      <c r="R13" s="25"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" ht="16.5">
       <c r="A14" s="3">
         <v>65</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="49">
+      <c r="B14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="50">
         <f>SUM($A$14:$A$15)/2</f>
         <v>66.5</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H14,$B$14:$B$18,I$1)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H14,$B$14:$B$18,J$1)</f>
+        <v>25</v>
+      </c>
+      <c r="I14" s="17">
+        <f t="shared" ref="I14:I19" si="48">COUNTIFS($A$14:$A$18,$H14,$B$14:$B$18,I$1)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" ref="J14:J19" si="49">COUNTIFS($A$14:$A$18,$H14,$B$14:$B$18,J$1)</f>
         <v>1</v>
       </c>
       <c r="K14" s="3">
-        <f>$I14/SUM($I14:$J14)</f>
+        <f t="shared" ref="K14:K24" si="50">$I14/SUM($I14:$J14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <f>$J14/SUM($I14:$J14)</f>
+        <f t="shared" ref="L14:L24" si="51">$J14/SUM($I14:$J14)</f>
         <v>1</v>
       </c>
       <c r="M14" s="3">
-        <f>-IFERROR($K14*LOG($K14,2),0)</f>
+        <f t="shared" ref="M14:M24" si="52">-IFERROR($K14*LOG($K14,2),0)</f>
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <f>-IFERROR($L14*LOG($L14,2),0)</f>
+        <f t="shared" ref="N14:N24" si="53">-IFERROR($L14*LOG($L14,2),0)</f>
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <f>SUM(M14:N14)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="14">
-        <f>SUM(I14:J14)/SUM($I$14:$J$15)</f>
+        <f t="shared" ref="O14:O24" si="54">SUM(M14:N14)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
+        <f t="shared" ref="P14:P24" si="55">SUM(I14:J14)/SUM($I$14:$J$15)</f>
         <v>0.20000000000000001</v>
       </c>
       <c r="Q14" s="3">
-        <f>O14*P14</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>20</v>
+        <f t="shared" ref="Q14:Q24" si="56">O14*P14</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="S14" s="1"/>
     </row>
@@ -9803,46 +9963,46 @@
         <v>68</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="49"/>
+        <v>1</v>
+      </c>
+      <c r="C15" s="50"/>
       <c r="H15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H15,$B$14:$B$18,I$1)</f>
+        <v>26</v>
+      </c>
+      <c r="I15" s="17">
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
-      <c r="J15" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H15,$B$14:$B$18,J$1)</f>
+      <c r="J15" s="17">
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="K15" s="3">
-        <f>$I15/SUM($I15:$J15)</f>
+        <f t="shared" si="50"/>
         <v>0.75</v>
       </c>
       <c r="L15" s="3">
-        <f>$J15/SUM($I15:$J15)</f>
+        <f t="shared" si="51"/>
         <v>0.25</v>
       </c>
       <c r="M15" s="3">
-        <f>-IFERROR($K15*LOG($K15,2),0)</f>
+        <f t="shared" si="52"/>
         <v>0.31127812445913283</v>
       </c>
       <c r="N15" s="3">
-        <f>-IFERROR($L15*LOG($L15,2),0)</f>
+        <f t="shared" si="53"/>
         <v>0.5</v>
       </c>
       <c r="O15" s="3">
-        <f>SUM(M15:N15)</f>
+        <f t="shared" si="54"/>
         <v>0.81127812445913283</v>
       </c>
-      <c r="P15" s="14">
-        <f>SUM(I15:J15)/SUM($I$14:$J$15)</f>
+      <c r="P15" s="17">
+        <f t="shared" si="55"/>
         <v>0.80000000000000004</v>
       </c>
       <c r="Q15" s="3">
-        <f>O15*P15</f>
+        <f t="shared" si="56"/>
         <v>0.64902249956730629</v>
       </c>
       <c r="R15" s="3">
@@ -9856,53 +10016,53 @@
         <v>70</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="49">
+        <v>1</v>
+      </c>
+      <c r="C16" s="50">
         <f>SUM($A$16:$A$17)/2</f>
         <v>70.5</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H16,$B$14:$B$18,I$1)</f>
+        <v>27</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
-      <c r="J16" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H16,$B$14:$B$18,J$1)</f>
+      <c r="J16" s="17">
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="K16" s="3">
-        <f>$I16/SUM($I16:$J16)</f>
+        <f t="shared" si="50"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="L16" s="3">
-        <f>$J16/SUM($I16:$J16)</f>
+        <f t="shared" si="51"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M16" s="3">
-        <f>-IFERROR($K16*LOG($K16,2),0)</f>
+        <f t="shared" si="52"/>
         <v>0.38997500048077083</v>
       </c>
       <c r="N16" s="3">
-        <f>-IFERROR($L16*LOG($L16,2),0)</f>
+        <f t="shared" si="53"/>
         <v>0.52832083357371873</v>
       </c>
       <c r="O16" s="3">
-        <f>SUM(M16:N16)</f>
+        <f t="shared" si="54"/>
         <v>0.91829583405448956</v>
       </c>
-      <c r="P16" s="14">
-        <f>SUM(I16:J16)/SUM($I$14:$J$15)</f>
+      <c r="P16" s="17">
+        <f t="shared" si="55"/>
         <v>0.59999999999999998</v>
       </c>
       <c r="Q16" s="3">
-        <f>O16*P16</f>
+        <f t="shared" si="56"/>
         <v>0.55097750043269367</v>
       </c>
-      <c r="R16" s="11" t="s">
-        <v>20</v>
+      <c r="R16" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="S16" s="1"/>
     </row>
@@ -9910,50 +10070,50 @@
       <c r="A17" s="3">
         <v>71</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="49">
+      <c r="B17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="50">
         <f>SUM($A$17:$A$18)/2</f>
         <v>73</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H17,$B$14:$B$18,I$1)</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H17,$B$14:$B$18,J$1)</f>
+        <v>28</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="K17" s="3">
-        <f>$I17/SUM($I17:$J17)</f>
+        <f t="shared" si="50"/>
         <v>0.5</v>
       </c>
       <c r="L17" s="3">
-        <f>$J17/SUM($I17:$J17)</f>
+        <f t="shared" si="51"/>
         <v>0.5</v>
       </c>
       <c r="M17" s="3">
-        <f>-IFERROR($K17*LOG($K17,2),0)</f>
+        <f t="shared" si="52"/>
         <v>0.5</v>
       </c>
       <c r="N17" s="3">
-        <f>-IFERROR($L17*LOG($L17,2),0)</f>
+        <f t="shared" si="53"/>
         <v>0.5</v>
       </c>
       <c r="O17" s="3">
-        <f>SUM(M17:N17)</f>
-        <v>1</v>
-      </c>
-      <c r="P17" s="14">
-        <f>SUM(I17:J17)/SUM($I$14:$J$15)</f>
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="17">
+        <f t="shared" si="55"/>
         <v>0.40000000000000002</v>
       </c>
       <c r="Q17" s="3">
-        <f>O17*P17</f>
+        <f t="shared" si="56"/>
         <v>0.40000000000000002</v>
       </c>
       <c r="R17" s="3">
@@ -9966,92 +10126,92 @@
       <c r="A18" s="3">
         <v>75</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="49"/>
+      <c r="B18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="50"/>
       <c r="H18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H18,$B$14:$B$18,I$1)</f>
+        <v>47</v>
+      </c>
+      <c r="I18" s="17">
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
-      <c r="J18" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H18,$B$14:$B$18,J$1)</f>
+      <c r="J18" s="17">
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="K18" s="3">
-        <f>$I18/SUM($I18:$J18)</f>
+        <f t="shared" si="50"/>
         <v>0.5</v>
       </c>
       <c r="L18" s="3">
-        <f>$J18/SUM($I18:$J18)</f>
+        <f t="shared" si="51"/>
         <v>0.5</v>
       </c>
       <c r="M18" s="3">
-        <f>-IFERROR($K18*LOG($K18,2),0)</f>
+        <f t="shared" si="52"/>
         <v>0.5</v>
       </c>
       <c r="N18" s="3">
-        <f>-IFERROR($L18*LOG($L18,2),0)</f>
+        <f t="shared" si="53"/>
         <v>0.5</v>
       </c>
       <c r="O18" s="3">
-        <f>SUM(M18:N18)</f>
-        <v>1</v>
-      </c>
-      <c r="P18" s="14">
-        <f>SUM(I18:J18)/SUM($I$14:$J$15)</f>
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="17">
+        <f t="shared" si="55"/>
         <v>0.80000000000000004</v>
       </c>
       <c r="Q18" s="3">
-        <f>O18*P18</f>
+        <f t="shared" si="56"/>
         <v>0.80000000000000004</v>
       </c>
-      <c r="R18" s="11" t="s">
-        <v>20</v>
+      <c r="R18" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="S18" s="1"/>
     </row>
     <row r="19" ht="16.5">
       <c r="H19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H19,$B$14:$B$18,I$1)</f>
-        <v>1</v>
-      </c>
-      <c r="J19" s="14">
-        <f>COUNTIFS($A$14:$A$18,$H19,$B$14:$B$18,J$1)</f>
+        <v>48</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="17">
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K19" s="3">
-        <f>$I19/SUM($I19:$J19)</f>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="L19" s="3">
-        <f>$J19/SUM($I19:$J19)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M19" s="3">
-        <f>-IFERROR($K19*LOG($K19,2),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="N19" s="3">
-        <f>-IFERROR($L19*LOG($L19,2),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O19" s="3">
-        <f>SUM(M19:N19)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="14">
-        <f>SUM(I19:J19)/SUM($I$14:$J$15)</f>
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="17">
+        <f t="shared" si="55"/>
         <v>0.20000000000000001</v>
       </c>
       <c r="Q19" s="3">
-        <f>O19*P19</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="R19" s="3">
@@ -10075,114 +10235,114 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" ht="16.5">
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
       <c r="S21" s="1"/>
     </row>
     <row r="22" ht="16.5">
       <c r="A22" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="7" t="s">
+      <c r="M22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="N22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="O22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R22" s="23"/>
+      <c r="R22" s="25"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" ht="16.5">
       <c r="A23" s="3">
         <v>70</v>
       </c>
-      <c r="B23" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="52">
+      <c r="B23" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="53">
         <f>SUM($A$23:$A$24)/2</f>
         <v>75</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="14">
-        <f>COUNTIFS($A$23:$A$27,$H23,$B$23:$B$27,I$1)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="14">
-        <f>COUNTIFS($A$23:$A$27,$H23,$B$23:$B$27,J$1)</f>
+        <v>49</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" ref="I23:I24" si="57">COUNTIFS($A$23:$A$27,$H23,$B$23:$B$27,I$1)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <f t="shared" ref="J23:J24" si="58">COUNTIFS($A$23:$A$27,$H23,$B$23:$B$27,J$1)</f>
         <v>1</v>
       </c>
       <c r="K23" s="3">
-        <f>$I23/SUM($I23:$J23)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <f>$J23/SUM($I23:$J23)</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="M23" s="3">
-        <f>-IFERROR($K23*LOG($K23,2),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <f>-IFERROR($L23*LOG($L23,2),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <f>SUM(M23:N23)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="14">
-        <f>SUM(I23:J23)/SUM($I$14:$J$15)</f>
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="17">
+        <f t="shared" si="55"/>
         <v>0.20000000000000001</v>
       </c>
       <c r="Q23" s="3">
-        <f>O23*P23</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>20</v>
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="S23" s="1"/>
     </row>
@@ -10190,47 +10350,47 @@
       <c r="A24" s="3">
         <v>80</v>
       </c>
-      <c r="B24" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="52"/>
+      <c r="B24" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="53"/>
       <c r="H24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="14">
-        <f>COUNTIFS($A$23:$A$27,$H24,$B$23:$B$27,I$1)</f>
+        <v>50</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" si="57"/>
         <v>3</v>
       </c>
-      <c r="J24" s="14">
-        <f>COUNTIFS($A$23:$A$27,$H24,$B$23:$B$27,J$1)</f>
+      <c r="J24" s="17">
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="K24" s="3">
-        <f>$I24/SUM($I24:$J24)</f>
+        <f t="shared" si="50"/>
         <v>0.75</v>
       </c>
       <c r="L24" s="3">
-        <f>$J24/SUM($I24:$J24)</f>
+        <f t="shared" si="51"/>
         <v>0.25</v>
       </c>
       <c r="M24" s="3">
-        <f>-IFERROR($K24*LOG($K24,2),0)</f>
+        <f t="shared" si="52"/>
         <v>0.31127812445913283</v>
       </c>
       <c r="N24" s="3">
-        <f>-IFERROR($L24*LOG($L24,2),0)</f>
+        <f t="shared" si="53"/>
         <v>0.5</v>
       </c>
       <c r="O24" s="3">
-        <f>SUM(M24:N24)</f>
+        <f t="shared" si="54"/>
         <v>0.81127812445913283</v>
       </c>
-      <c r="P24" s="14">
-        <f>SUM(I24:J24)/SUM($I$14:$J$15)</f>
+      <c r="P24" s="17">
+        <f t="shared" si="55"/>
         <v>0.80000000000000004</v>
       </c>
       <c r="Q24" s="3">
-        <f>O24*P24</f>
+        <f t="shared" si="56"/>
         <v>0.64902249956730629</v>
       </c>
       <c r="R24" s="3">
@@ -10243,41 +10403,41 @@
       <c r="A25" s="3">
         <v>80</v>
       </c>
-      <c r="B25" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="52"/>
+      <c r="B25" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="53"/>
     </row>
     <row r="26" ht="16.5">
       <c r="A26" s="3">
         <v>80</v>
       </c>
-      <c r="B26" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="52"/>
+      <c r="B26" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="53"/>
     </row>
     <row r="27" ht="16.5">
       <c r="A27" s="3">
         <v>96</v>
       </c>
-      <c r="B27" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="52"/>
+      <c r="B27" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="53"/>
     </row>
     <row r="32" ht="16.5">
       <c r="A32" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" ht="16.5">
@@ -10291,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="16.5">
@@ -10305,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="16.5">
@@ -10318,8 +10478,8 @@
       <c r="C35" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>5</v>
+      <c r="D35" s="16" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="16.5">
@@ -10332,8 +10492,8 @@
       <c r="C36" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>6</v>
+      <c r="D36" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="37" ht="16.5">
@@ -10346,28 +10506,28 @@
       <c r="C37" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>6</v>
+      <c r="D37" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="53" ht="16.5">
       <c r="I53" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" ht="16.5">
@@ -10377,8 +10537,8 @@
       <c r="J54" s="3">
         <v>70</v>
       </c>
-      <c r="K54" s="5" t="s">
-        <v>6</v>
+      <c r="K54" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="N54" s="3">
         <v>70</v>
@@ -10387,7 +10547,7 @@
         <v>96</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="16.5">
@@ -10397,8 +10557,8 @@
       <c r="J55" s="3">
         <v>80</v>
       </c>
-      <c r="K55" s="5" t="s">
-        <v>6</v>
+      <c r="K55" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="N55" s="3">
         <v>68</v>
@@ -10407,7 +10567,7 @@
         <v>80</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" ht="16.5">
@@ -10417,8 +10577,8 @@
       <c r="O56" s="3">
         <v>80</v>
       </c>
-      <c r="P56" s="13" t="s">
-        <v>5</v>
+      <c r="P56" s="16" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="57"/>
@@ -10445,7 +10605,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="12.421875"/>
     <col customWidth="1" min="2" max="2" width="15.57421875"/>
@@ -10455,258 +10615,258 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>85</v>
+      </c>
+      <c r="C2" s="3">
+        <v>85</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="16.5">
-      <c r="A2" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="42">
-        <v>85</v>
-      </c>
-      <c r="C2" s="42">
-        <v>85</v>
-      </c>
-      <c r="D2" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="55" t="s">
+    </row>
+    <row r="3" ht="16.5">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" ht="16.5">
-      <c r="A3" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="42">
+      <c r="B3" s="3">
         <v>80</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="3">
         <v>90</v>
       </c>
-      <c r="D3" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="55" t="s">
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3">
+        <v>83</v>
+      </c>
+      <c r="C4" s="3">
+        <v>78</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3">
+        <v>70</v>
+      </c>
+      <c r="C5" s="3">
+        <v>96</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>68</v>
+      </c>
+      <c r="C6" s="3">
+        <v>80</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3">
+        <v>70</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" ht="16.5">
-      <c r="A4" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="42">
-        <v>83</v>
-      </c>
-      <c r="C4" s="42">
-        <v>78</v>
-      </c>
-      <c r="D4" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5">
-      <c r="A5" s="42" t="s">
+      <c r="B9" s="3">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3">
+        <v>95</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>69</v>
+      </c>
+      <c r="C10" s="3">
+        <v>70</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>75</v>
+      </c>
+      <c r="C12" s="3">
+        <v>70</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="42">
-        <v>70</v>
-      </c>
-      <c r="C5" s="42">
-        <v>96</v>
-      </c>
-      <c r="D5" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5">
-      <c r="A6" s="42" t="s">
+      <c r="B13" s="3">
+        <v>72</v>
+      </c>
+      <c r="C13" s="3">
+        <v>90</v>
+      </c>
+      <c r="D13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="42">
-        <v>68</v>
-      </c>
-      <c r="C6" s="42">
+      <c r="B14" s="3">
+        <v>81</v>
+      </c>
+      <c r="C14" s="3">
+        <v>75</v>
+      </c>
+      <c r="D14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3">
+        <v>71</v>
+      </c>
+      <c r="C15" s="3">
         <v>80</v>
       </c>
-      <c r="D6" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5">
-      <c r="A7" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="42">
-        <v>65</v>
-      </c>
-      <c r="C7" s="42">
-        <v>70</v>
-      </c>
-      <c r="D7" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5">
-      <c r="A8" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="42">
-        <v>64</v>
-      </c>
-      <c r="C8" s="42">
-        <v>65</v>
-      </c>
-      <c r="D8" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5">
-      <c r="A9" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="42">
-        <v>72</v>
-      </c>
-      <c r="C9" s="42">
-        <v>95</v>
-      </c>
-      <c r="D9" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5">
-      <c r="A10" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="42">
-        <v>69</v>
-      </c>
-      <c r="C10" s="42">
-        <v>70</v>
-      </c>
-      <c r="D10" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5">
-      <c r="A11" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="42">
-        <v>75</v>
-      </c>
-      <c r="C11" s="42">
-        <v>80</v>
-      </c>
-      <c r="D11" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5">
-      <c r="A12" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="42">
-        <v>75</v>
-      </c>
-      <c r="C12" s="42">
-        <v>70</v>
-      </c>
-      <c r="D12" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5">
-      <c r="A13" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="42">
-        <v>72</v>
-      </c>
-      <c r="C13" s="42">
-        <v>90</v>
-      </c>
-      <c r="D13" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5">
-      <c r="A14" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="42">
-        <v>81</v>
-      </c>
-      <c r="C14" s="42">
-        <v>75</v>
-      </c>
-      <c r="D14" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5">
-      <c r="A15" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="42">
-        <v>71</v>
-      </c>
-      <c r="C15" s="42">
-        <v>80</v>
-      </c>
-      <c r="D15" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>6</v>
+      <c r="D15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
